--- a/(4.21)Database for China Agricultural.xlsx
+++ b/(4.21)Database for China Agricultural.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="892" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="892" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="3.1.1a" sheetId="61" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="543">
   <si>
     <t>Classification</t>
   </si>
@@ -830,9 +830,6 @@
     <t>Phosphate fertilizer (ten thousand tons)</t>
   </si>
   <si>
-    <t>Potash fertilizer (ten thousand tons)</t>
-  </si>
-  <si>
     <t>Pesticide (ton)</t>
   </si>
   <si>
@@ -843,9 +840,6 @@
   </si>
   <si>
     <t>Fertilizer (ten thousand tons)</t>
-  </si>
-  <si>
-    <t>Compound fertilizer (ten thousand tons)</t>
   </si>
   <si>
     <t>Agricultural diesel oil (ten thousand tons)</t>
@@ -1448,21 +1442,6 @@
     <t>(Percent) </t>
   </si>
   <si>
-    <t>103906.8W</t>
-  </si>
-  <si>
-    <t>108056.6W</t>
-  </si>
-  <si>
-    <t>111728.1W</t>
-  </si>
-  <si>
-    <t>97245.6W</t>
-  </si>
-  <si>
-    <t>98783.8W</t>
-  </si>
-  <si>
     <t>Table 3.4.23: Mechanization index</t>
   </si>
   <si>
@@ -2482,6 +2461,22 @@
     <t>Basic inputs</t>
     <phoneticPr fontId="47" type="noConversion"/>
   </si>
+  <si>
+    <t>Compound fertilizer (ten thousand tons)</t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potash fertilizer (ten thousand tons)</t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004 </t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010 </t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2492,7 +2487,7 @@
     <numFmt numFmtId="177" formatCode="0.00000%"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2903,6 +2898,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -3377,7 +3380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3916,6 +3919,12 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3943,27 +3952,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3985,24 +3973,45 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4021,6 +4030,12 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4052,33 +4067,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4096,6 +4084,33 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4114,31 +4129,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4178,7 +4184,7 @@
             <xdr:cNvPr id="2" name="Rectangle 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <ele xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                  <ele xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns=""/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5149,7 +5155,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+      <mc:Fallback xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Rectangle 1"/>
@@ -6280,7 +6286,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6288,9 +6294,9 @@
     <col min="1" max="1" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="262" t="s">
-        <v>543</v>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="190" t="s">
+        <v>536</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6300,22 +6306,22 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="193" t="s">
+    <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="192"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="194"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="194"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="196"/>
       <c r="B3" s="176" t="s">
         <v>2</v>
       </c>
@@ -6338,9 +6344,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="26" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B4" s="178">
         <v>960000</v>
@@ -6508,7 +6514,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="A11" s="181" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1"/>
@@ -6528,7 +6534,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6"/>
@@ -6539,25 +6545,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="221" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="222" t="s">
+      <c r="A2" s="223" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="226"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="219"/>
+      <c r="A3" s="221"/>
       <c r="B3" s="123">
         <v>2017</v>
       </c>
@@ -6582,7 +6588,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.1" customHeight="1">
       <c r="A4" s="139" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4" s="140">
         <v>33262</v>
@@ -6608,7 +6614,7 @@
     </row>
     <row r="5" spans="1:8" ht="23.1" customHeight="1">
       <c r="A5" s="139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B5" s="140">
         <v>12457</v>
@@ -6634,7 +6640,7 @@
     </row>
     <row r="6" spans="1:8" ht="23.1" customHeight="1">
       <c r="A6" s="139" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B6" s="140">
         <v>5425</v>
@@ -6660,7 +6666,7 @@
     </row>
     <row r="7" spans="1:8" ht="23.1" customHeight="1">
       <c r="A7" s="139" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B7" s="140">
         <v>98795</v>
@@ -6686,7 +6692,7 @@
     </row>
     <row r="8" spans="1:8" ht="23.1" customHeight="1">
       <c r="A8" s="139" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B8" s="140">
         <v>732</v>
@@ -6712,7 +6718,7 @@
     </row>
     <row r="9" spans="1:8" ht="23.1" customHeight="1">
       <c r="A9" s="139" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9" s="140">
         <v>3934</v>
@@ -6738,7 +6744,7 @@
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1">
       <c r="A10" s="139" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" s="140">
         <v>94129</v>
@@ -6764,7 +6770,7 @@
     </row>
     <row r="11" spans="1:8" ht="23.1" customHeight="1">
       <c r="A11" s="139" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="140">
         <v>9035</v>
@@ -6790,7 +6796,7 @@
     </row>
     <row r="12" spans="1:8" ht="23.1" customHeight="1">
       <c r="A12" s="139" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B12" s="140">
         <v>7210</v>
@@ -6816,7 +6822,7 @@
     </row>
     <row r="13" spans="1:8" ht="23.1" customHeight="1">
       <c r="A13" s="139" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B13" s="140">
         <v>1117</v>
@@ -6842,7 +6848,7 @@
     </row>
     <row r="14" spans="1:8" ht="23.1" customHeight="1">
       <c r="A14" s="139" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B14" s="140">
         <v>708</v>
@@ -6868,7 +6874,7 @@
     </row>
     <row r="15" spans="1:8" ht="23.1" customHeight="1">
       <c r="A15" s="139" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B15" s="140">
         <v>34319</v>
@@ -6894,7 +6900,7 @@
     </row>
     <row r="16" spans="1:8" ht="23.1" customHeight="1">
       <c r="A16" s="139" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B16" s="140">
         <v>23824</v>
@@ -6920,7 +6926,7 @@
     </row>
     <row r="17" spans="1:8" ht="23.1" customHeight="1">
       <c r="A17" s="139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B17" s="140">
         <v>125839</v>
@@ -6946,7 +6952,7 @@
     </row>
     <row r="18" spans="1:8" ht="23.1" customHeight="1">
       <c r="A18" s="139" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B18" s="140">
         <v>31</v>
@@ -6972,7 +6978,7 @@
     </row>
     <row r="19" spans="1:8" ht="23.1" customHeight="1">
       <c r="A19" s="139" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B19" s="140">
         <v>40946</v>
@@ -6996,7 +7002,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="141" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7036,34 +7042,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="97" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="51.75" customHeight="1">
+      <c r="A2" s="229" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="223" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A2" s="225" t="s">
+      <c r="C2" s="224" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="D2" s="226"/>
+    </row>
+    <row r="3" spans="1:4" ht="52.5" customHeight="1">
+      <c r="A3" s="230"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="222" t="s">
+      <c r="D3" s="99" t="s">
         <v>267</v>
-      </c>
-      <c r="D2" s="224"/>
-    </row>
-    <row r="3" spans="1:4" ht="52.5" customHeight="1">
-      <c r="A3" s="226"/>
-      <c r="B3" s="219"/>
-      <c r="C3" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="131" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" s="132"/>
       <c r="C4" s="110"/>
@@ -7071,7 +7077,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="133" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="134"/>
       <c r="C5" s="135"/>
@@ -7097,7 +7103,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="111" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7116,7 +7122,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6"/>
@@ -7128,7 +7134,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1">
@@ -7136,19 +7142,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="E2" s="122" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="F2" s="122" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="122" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7258,7 +7264,7 @@
     </row>
     <row r="8" spans="1:6" ht="16.2">
       <c r="A8" s="187" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.2">
@@ -7294,40 +7300,40 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="195" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="192">
+        <v>2010</v>
+      </c>
+      <c r="C2" s="194"/>
+      <c r="D2" s="192">
+        <v>2015</v>
+      </c>
+      <c r="E2" s="194"/>
+    </row>
+    <row r="3" spans="1:5" ht="39" customHeight="1">
+      <c r="A3" s="196"/>
+      <c r="B3" s="14" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="193" t="s">
+      <c r="C3" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="190">
-        <v>2010</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="190">
-        <v>2015</v>
-      </c>
-      <c r="E2" s="192"/>
-    </row>
-    <row r="3" spans="1:5" ht="39" customHeight="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7336,7 +7342,7 @@
     </row>
     <row r="5" spans="1:5" ht="22.95" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -7345,7 +7351,7 @@
     </row>
     <row r="6" spans="1:5" ht="22.95" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7354,7 +7360,7 @@
     </row>
     <row r="7" spans="1:5" ht="22.95" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B7" s="121"/>
       <c r="C7" s="8"/>
@@ -7363,7 +7369,7 @@
     </row>
     <row r="8" spans="1:5" ht="22.95" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="6"/>
@@ -7381,7 +7387,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7411,66 +7417,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A2" s="231" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="231" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="231" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="227" t="s">
+      <c r="D2" s="231" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="E2" s="231" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="227" t="s">
+      <c r="F2" s="234" t="s">
         <v>291</v>
       </c>
-      <c r="E2" s="227" t="s">
+      <c r="G2" s="235"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="231" t="s">
         <v>292</v>
       </c>
-      <c r="F2" s="230" t="s">
+      <c r="J2" s="231" t="s">
         <v>293</v>
       </c>
-      <c r="G2" s="231"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="227" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="232"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+    </row>
+    <row r="4" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A4" s="233"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="J2" s="227" t="s">
+      <c r="G4" s="117" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-    </row>
-    <row r="4" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A4" s="229"/>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="117" t="s">
+      <c r="H4" s="117" t="s">
         <v>296</v>
       </c>
-      <c r="G4" s="117" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" s="117" t="s">
-        <v>298</v>
-      </c>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="118">
@@ -7604,7 +7610,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.2">
       <c r="A10" s="188" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -7628,7 +7634,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6"/>
@@ -7640,22 +7646,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="97" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="221" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="222" t="s">
+      <c r="A2" s="223" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="226"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="219"/>
+      <c r="A3" s="221"/>
       <c r="B3" s="98">
         <v>2001</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>2004</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E3" s="99">
         <v>2014</v>
@@ -7671,7 +7677,7 @@
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
       <c r="A4" s="100" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B4" s="112">
         <v>75.765000000000001</v>
@@ -7684,7 +7690,7 @@
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
       <c r="A5" s="103" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B5" s="112">
         <v>12.14</v>
@@ -7701,7 +7707,7 @@
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="A6" s="103" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B6" s="112">
         <v>12.14</v>
@@ -7714,7 +7720,7 @@
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
       <c r="A7" s="103" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B7" s="113">
         <v>83.355000000000004</v>
@@ -7727,7 +7733,7 @@
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
       <c r="A8" s="105" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B8" s="112"/>
       <c r="C8" s="114"/>
@@ -7736,7 +7742,7 @@
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
       <c r="A9" s="105" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B9" s="113"/>
       <c r="C9" s="115"/>
@@ -7745,7 +7751,7 @@
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
       <c r="A10" s="105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B10" s="112"/>
       <c r="C10" s="114"/>
@@ -7754,7 +7760,7 @@
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
       <c r="A11" s="105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B11" s="113">
         <v>4282.1000000000004</v>
@@ -7771,7 +7777,7 @@
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
       <c r="A12" s="105" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B12" s="112">
         <v>2355.3000000000002</v>
@@ -7788,7 +7794,7 @@
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
       <c r="A13" s="103" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B13" s="107"/>
       <c r="C13" s="108"/>
@@ -7797,7 +7803,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="116" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -7815,7 +7821,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" activeCellId="1" sqref="K14 G16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6"/>
@@ -7830,38 +7836,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="221" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="222" t="s">
+      <c r="A2" s="223" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="226"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="219"/>
+      <c r="A3" s="221"/>
       <c r="B3" s="98">
         <v>2001</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33.75" customHeight="1">
       <c r="A4" s="100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
@@ -7870,7 +7876,7 @@
     </row>
     <row r="5" spans="1:5" ht="33.75" customHeight="1">
       <c r="A5" s="103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="104"/>
@@ -7879,7 +7885,7 @@
     </row>
     <row r="6" spans="1:5" ht="33.75" customHeight="1">
       <c r="A6" s="103" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B6" s="101">
         <v>46.5</v>
@@ -7896,7 +7902,7 @@
     </row>
     <row r="7" spans="1:5" ht="33.75" customHeight="1">
       <c r="A7" s="103" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7" s="104">
         <v>2656.8</v>
@@ -7911,7 +7917,7 @@
     </row>
     <row r="8" spans="1:5" ht="33.75" customHeight="1">
       <c r="A8" s="105" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B8" s="106"/>
       <c r="C8" s="106"/>
@@ -7920,7 +7926,7 @@
     </row>
     <row r="9" spans="1:5" ht="33.75" customHeight="1">
       <c r="A9" s="103" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B9" s="107"/>
       <c r="C9" s="108"/>
@@ -7929,7 +7935,7 @@
     </row>
     <row r="10" spans="1:5" ht="33.75" customHeight="1">
       <c r="A10" s="103" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B10" s="109"/>
       <c r="C10" s="110"/>
@@ -7938,7 +7944,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="188" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -7956,7 +7962,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.2"/>
@@ -7965,40 +7971,40 @@
     <col min="2" max="16384" width="17.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16.8" thickBot="1">
       <c r="A1" s="44" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="193" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="190" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.8" thickBot="1">
+      <c r="A2" s="195" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="194"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.399999999999999" thickTop="1" thickBot="1">
+      <c r="A3" s="196"/>
       <c r="B3" s="89">
         <v>2001</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>312</v>
+        <v>541</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>301</v>
+        <v>542</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="39" customHeight="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="86">
         <v>1722.9</v>
@@ -8013,7 +8019,7 @@
     </row>
     <row r="5" spans="1:5" ht="24.75" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -8022,7 +8028,7 @@
     </row>
     <row r="6" spans="1:5" ht="24.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
@@ -8031,7 +8037,7 @@
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
@@ -8040,7 +8046,7 @@
     </row>
     <row r="8" spans="1:5" ht="24.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B8" s="91"/>
       <c r="C8" s="92"/>
@@ -8049,7 +8055,7 @@
     </row>
     <row r="9" spans="1:5" ht="24.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B9" s="95"/>
       <c r="C9" s="96"/>
@@ -8058,7 +8064,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="184" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8091,38 +8097,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="193" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="190" t="s">
+      <c r="A2" s="195" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="194"/>
+      <c r="A3" s="196"/>
       <c r="B3" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C3" s="15">
         <v>2004</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36.75" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B4" s="40">
         <v>8692.4</v>
@@ -8137,7 +8143,7 @@
     </row>
     <row r="5" spans="1:5" ht="36.75" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -8148,7 +8154,7 @@
     </row>
     <row r="6" spans="1:5" ht="36.75" customHeight="1">
       <c r="A6" s="39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -8157,7 +8163,7 @@
     </row>
     <row r="7" spans="1:5" ht="36.75" customHeight="1">
       <c r="A7" s="39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -8166,7 +8172,7 @@
     </row>
     <row r="8" spans="1:5" ht="36.75" customHeight="1">
       <c r="A8" s="39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -8175,7 +8181,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="184" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8210,51 +8216,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="70" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A2" s="240" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="240" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A2" s="245" t="s">
+      <c r="C2" s="71" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="D2" s="248" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="249" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="239" t="s">
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="250"/>
+    </row>
+    <row r="3" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A3" s="241"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="244" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="240" t="s">
-        <v>337</v>
-      </c>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="241"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A3" s="246"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="249" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="244"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="253"/>
     </row>
     <row r="4" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A4" s="246"/>
-      <c r="B4" s="246"/>
-      <c r="C4" s="249"/>
+      <c r="A4" s="241"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="244"/>
       <c r="D4" s="72">
         <v>2014</v>
       </c>
@@ -8281,14 +8287,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="242" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="74" t="s">
         <v>339</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>341</v>
       </c>
       <c r="D5" s="74">
         <v>129300</v>
@@ -8303,23 +8309,23 @@
         <v>13225400</v>
       </c>
       <c r="H5" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="K5" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="J5" s="74" t="s">
-        <v>344</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="248"/>
+      <c r="A6" s="243"/>
       <c r="B6" s="75"/>
       <c r="C6" s="76" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
@@ -8331,14 +8337,14 @@
       <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A7" s="245" t="s">
+      <c r="A7" s="240" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="78" t="s">
         <v>347</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>348</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>349</v>
       </c>
       <c r="D7" s="78">
         <v>900800</v>
@@ -8346,49 +8352,49 @@
       <c r="E7" s="78">
         <v>1921925</v>
       </c>
-      <c r="F7" s="236">
+      <c r="F7" s="245">
         <v>1115570</v>
       </c>
-      <c r="G7" s="236">
+      <c r="G7" s="245">
         <v>1121100</v>
       </c>
       <c r="H7" s="78" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" s="245" t="s">
         <v>350</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="K7" s="245" t="s">
         <v>351</v>
       </c>
-      <c r="J7" s="236" t="s">
-        <v>352</v>
-      </c>
-      <c r="K7" s="236" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="248"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D8" s="80"/>
       <c r="E8" s="81"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
       <c r="H8" s="80"/>
       <c r="I8" s="80"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1">
       <c r="A9" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="84" t="s">
         <v>355</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>357</v>
       </c>
       <c r="D9" s="85">
         <v>613900</v>
@@ -8396,26 +8402,26 @@
       <c r="E9" s="85">
         <v>1663848</v>
       </c>
-      <c r="F9" s="237"/>
-      <c r="G9" s="237"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
       <c r="H9" s="85" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>359</v>
-      </c>
-      <c r="J9" s="237"/>
-      <c r="K9" s="237"/>
+        <v>357</v>
+      </c>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
       <c r="A10" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="87" t="s">
         <v>360</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>362</v>
       </c>
       <c r="D10" s="88">
         <v>434676</v>
@@ -8423,16 +8429,16 @@
       <c r="E10" s="88">
         <v>335950</v>
       </c>
-      <c r="F10" s="238"/>
-      <c r="G10" s="238"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="247"/>
       <c r="H10" s="88" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
+        <v>362</v>
+      </c>
+      <c r="J10" s="247"/>
+      <c r="K10" s="247"/>
     </row>
     <row r="11" spans="1:11">
       <c r="C11" s="10" t="s">
@@ -8441,17 +8447,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:K3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8483,20 +8489,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="190" t="s">
+      <c r="B2" s="199"/>
+      <c r="C2" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="192"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="194"/>
-      <c r="B3" s="198"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="200"/>
       <c r="C3" s="173"/>
       <c r="D3" s="174"/>
       <c r="E3" s="174"/>
@@ -8563,10 +8569,10 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="196"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="49"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -8574,7 +8580,7 @@
     </row>
     <row r="10" spans="1:6" ht="20.399999999999999" customHeight="1">
       <c r="A10" s="184" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8607,59 +8613,59 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51.75" customHeight="1">
+      <c r="A2" s="254" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="254" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="51.75" customHeight="1">
-      <c r="A2" s="250" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="G2" s="254" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" s="250" t="s">
+      <c r="H2" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="G2" s="250" t="s">
+      <c r="I2" s="64" t="s">
         <v>368</v>
       </c>
-      <c r="H2" s="64" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="64.5" customHeight="1">
+      <c r="A3" s="255"/>
+      <c r="B3" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="C3" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="66" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A3" s="251"/>
-      <c r="B3" s="66" t="s">
+      <c r="I3" s="66" t="s">
         <v>371</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8740,7 +8746,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="184" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -8749,7 +8755,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="183" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -8795,7 +8801,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" activeCellId="1" sqref="H14 K19"/>
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.2"/>
@@ -8805,59 +8811,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="256" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+    </row>
+    <row r="2" spans="1:6" s="63" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="254" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-    </row>
-    <row r="2" spans="1:6" s="63" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="250" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="D2" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="F2" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="64" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="39" customHeight="1">
+      <c r="A3" s="257"/>
+      <c r="B3" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" customHeight="1">
-      <c r="A3" s="253"/>
-      <c r="B3" s="65" t="s">
+      <c r="D3" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="E3" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>383</v>
-      </c>
       <c r="F3" s="65" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>2013</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>384</v>
+      <c r="B4" s="191">
+        <v>103906.8</v>
       </c>
       <c r="C4" s="6">
         <v>7.9000000000000001E-2</v>
@@ -8876,8 +8882,8 @@
       <c r="A5" s="6">
         <v>2014</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>385</v>
+      <c r="B5" s="6">
+        <v>108056.6</v>
       </c>
       <c r="C5" s="6">
         <v>0.08</v>
@@ -8896,8 +8902,8 @@
       <c r="A6" s="6">
         <v>2015</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>386</v>
+      <c r="B6" s="6">
+        <v>111728.1</v>
       </c>
       <c r="C6" s="6">
         <v>7.5999999999999998E-2</v>
@@ -8916,8 +8922,8 @@
       <c r="A7" s="6">
         <v>2016</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>387</v>
+      <c r="B7" s="6">
+        <v>97245.6</v>
       </c>
       <c r="C7" s="6">
         <v>8.6999999999999994E-2</v>
@@ -8936,8 +8942,8 @@
       <c r="A8" s="6">
         <v>2017</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>388</v>
+      <c r="B8" s="6">
+        <v>98783.8</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -8946,7 +8952,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="184" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -8978,57 +8984,57 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A2" s="204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="209" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="61" t="s">
+    <row r="3" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A3" s="206"/>
+      <c r="B3" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>391</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="211"/>
-      <c r="B3" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9085,8 +9091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.2"/>
@@ -9097,91 +9103,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="252" t="s">
-        <v>399</v>
-      </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
+      <c r="A1" s="256" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="190" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="190" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="192"/>
-      <c r="F2" s="190" t="s">
-        <v>400</v>
-      </c>
-      <c r="G2" s="192"/>
-      <c r="H2" s="190" t="s">
-        <v>401</v>
-      </c>
-      <c r="I2" s="192"/>
+      <c r="B2" s="192" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="194"/>
+      <c r="D2" s="192" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="194"/>
+      <c r="F2" s="192" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="194"/>
+      <c r="H2" s="192" t="s">
+        <v>394</v>
+      </c>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="A3" s="212"/>
+      <c r="A3" s="207"/>
       <c r="B3" s="54" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="194"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="56" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9440,7 +9446,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.2"/>
@@ -9451,55 +9457,55 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="47.1" customHeight="1">
+      <c r="A2" s="258" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="50" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.1" customHeight="1">
-      <c r="A2" s="254" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="50" t="s">
+    <row r="3" spans="1:8" ht="21" customHeight="1">
+      <c r="A3" s="259"/>
+      <c r="B3" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C3" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1">
-      <c r="A3" s="255"/>
-      <c r="B3" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>415</v>
-      </c>
       <c r="E3" s="51" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G3" s="51"/>
       <c r="H3" s="51" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9707,7 +9713,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="189" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B13" s="9"/>
     </row>
@@ -9728,10 +9734,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.2"/>
@@ -9745,7 +9751,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1">
@@ -9753,13 +9759,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9867,7 +9873,7 @@
         <v>1.8159397276935031E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16.8" thickBot="1">
       <c r="A10" s="7">
         <v>2017</v>
       </c>
@@ -9883,14 +9889,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="46"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="184" t="s">
-        <v>540</v>
+      <c r="A11" s="184" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -9906,7 +9906,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -9919,54 +9919,54 @@
   <sheetData>
     <row r="1" spans="1:6" ht="47.1" customHeight="1">
       <c r="A1" s="23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A2" s="204" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="195" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="192" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A3" s="205"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="211" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="212"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="206"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A2" s="209" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="193" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" s="190" t="s">
-        <v>424</v>
-      </c>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="192"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A3" s="210"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="202" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204" t="s">
-        <v>426</v>
-      </c>
-      <c r="F3" s="203"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="211"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>428</v>
-      </c>
       <c r="E4" s="37" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="8"/>
@@ -9976,7 +9976,7 @@
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="39" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="6"/>
@@ -9986,7 +9986,7 @@
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1">
       <c r="A7" s="39" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="8"/>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="39" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="6"/>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1">
       <c r="A9" s="39" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="8"/>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1">
       <c r="A10" s="39" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="6"/>
@@ -10026,7 +10026,7 @@
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="8"/>
@@ -10036,7 +10036,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="184" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10044,7 +10044,7 @@
     </row>
     <row r="14" spans="1:6" ht="32.4">
       <c r="A14" s="182" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -10079,55 +10079,55 @@
   <sheetData>
     <row r="1" spans="1:7" ht="50.1" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A2" s="209" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2" s="209" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="209" t="s">
-        <v>439</v>
-      </c>
-      <c r="D2" s="209" t="s">
-        <v>440</v>
-      </c>
-      <c r="E2" s="193" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2" s="190" t="s">
-        <v>442</v>
-      </c>
-      <c r="G2" s="192"/>
+      <c r="A2" s="204" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="204" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="204" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="204" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="195" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="192" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="194"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="211"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="194"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="24" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.9" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C4" s="28">
         <v>1956</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -10135,16 +10135,16 @@
     </row>
     <row r="5" spans="1:7" ht="39.9" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C5" s="17">
         <v>1957</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="31"/>
@@ -10152,16 +10152,16 @@
     </row>
     <row r="6" spans="1:7" ht="39.9" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C6" s="17">
         <v>1959</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="33"/>
@@ -10169,16 +10169,16 @@
     </row>
     <row r="7" spans="1:7" ht="39.9" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C7" s="20">
         <v>1958</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="31"/>
@@ -10186,16 +10186,16 @@
     </row>
     <row r="8" spans="1:7" ht="39.9" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C8" s="18">
         <v>1958</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="33"/>
@@ -10203,16 +10203,16 @@
     </row>
     <row r="9" spans="1:7" ht="39.9" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C9" s="18">
         <v>1958</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="33"/>
@@ -10220,16 +10220,16 @@
     </row>
     <row r="10" spans="1:7" ht="39.9" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C10" s="18">
         <v>1958</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="33"/>
@@ -10237,16 +10237,16 @@
     </row>
     <row r="11" spans="1:7" ht="39.9" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C11" s="18">
         <v>1959</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="33"/>
@@ -10254,16 +10254,16 @@
     </row>
     <row r="12" spans="1:7" ht="39.9" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C12" s="34">
         <v>1958</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -10271,16 +10271,16 @@
     </row>
     <row r="13" spans="1:7" ht="39.9" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C13" s="34">
         <v>1959</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -10288,16 +10288,16 @@
     </row>
     <row r="14" spans="1:7" ht="39.9" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C14" s="34">
         <v>1958</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -10305,16 +10305,16 @@
     </row>
     <row r="15" spans="1:7" ht="39.9" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C15" s="34">
         <v>1958</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -10322,16 +10322,16 @@
     </row>
     <row r="16" spans="1:7" ht="39.9" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C16" s="34">
         <v>1953</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -10339,16 +10339,16 @@
     </row>
     <row r="17" spans="1:7" ht="39.9" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C17" s="34">
         <v>1959</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -10356,16 +10356,16 @@
     </row>
     <row r="18" spans="1:7" ht="39.9" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C18" s="34">
         <v>1960</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
@@ -10373,16 +10373,16 @@
     </row>
     <row r="19" spans="1:7" ht="39.9" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C19" s="34">
         <v>1960</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -10390,16 +10390,16 @@
     </row>
     <row r="20" spans="1:7" ht="39.9" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C20" s="34">
         <v>1958</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
@@ -10407,16 +10407,16 @@
     </row>
     <row r="21" spans="1:7" ht="39.9" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C21" s="34">
         <v>1958</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -10424,16 +10424,16 @@
     </row>
     <row r="22" spans="1:7" ht="39.9" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C22" s="34">
         <v>1958</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -10441,16 +10441,16 @@
     </row>
     <row r="23" spans="1:7" ht="39.9" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C23" s="34">
         <v>1958</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
@@ -10458,16 +10458,16 @@
     </row>
     <row r="24" spans="1:7" ht="39.9" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C24" s="34">
         <v>1958</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -10475,16 +10475,16 @@
     </row>
     <row r="25" spans="1:7" ht="39.9" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -10492,16 +10492,16 @@
     </row>
     <row r="26" spans="1:7" ht="39.9" customHeight="1">
       <c r="A26" s="22" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C26" s="34">
         <v>1959</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -10509,16 +10509,16 @@
     </row>
     <row r="27" spans="1:7" ht="39.9" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C27" s="18">
         <v>1956</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="33"/>
@@ -10526,16 +10526,16 @@
     </row>
     <row r="28" spans="1:7" ht="39.9" customHeight="1">
       <c r="A28" s="32" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C28" s="18">
         <v>1959</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="33"/>
@@ -10543,16 +10543,16 @@
     </row>
     <row r="29" spans="1:7" ht="39.9" customHeight="1">
       <c r="A29" s="22" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C29" s="34">
         <v>1963</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -10560,16 +10560,16 @@
     </row>
     <row r="30" spans="1:7" ht="39.9" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C30" s="34">
         <v>1959</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="186" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B31" s="35"/>
     </row>
@@ -10602,8 +10602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.2"/>
@@ -10619,527 +10619,527 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="48.6">
-      <c r="A2" s="209" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2" s="209" t="s">
-        <v>475</v>
-      </c>
-      <c r="C2" s="209" t="s">
-        <v>438</v>
-      </c>
-      <c r="D2" s="209" t="s">
-        <v>439</v>
+      <c r="A2" s="204" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="204" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="204" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" s="204" t="s">
+        <v>432</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="F2" s="190" t="s">
-        <v>476</v>
-      </c>
-      <c r="G2" s="192"/>
-      <c r="H2" s="190" t="s">
-        <v>477</v>
-      </c>
-      <c r="I2" s="192"/>
+        <v>433</v>
+      </c>
+      <c r="F2" s="192" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="194"/>
+      <c r="H2" s="192" t="s">
+        <v>470</v>
+      </c>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="211"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
       <c r="E3" s="13"/>
       <c r="F3" s="14" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.9" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D4" s="17">
         <v>1905</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F4" s="258">
+        <v>438</v>
+      </c>
+      <c r="F4" s="260">
         <v>158</v>
       </c>
-      <c r="G4" s="259"/>
-      <c r="H4" s="258">
+      <c r="G4" s="261"/>
+      <c r="H4" s="260">
         <v>1728</v>
       </c>
-      <c r="I4" s="259"/>
+      <c r="I4" s="261"/>
     </row>
     <row r="5" spans="1:9" ht="48" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D5" s="18">
         <v>1902</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F5" s="256">
+        <v>438</v>
+      </c>
+      <c r="F5" s="262">
         <v>450</v>
       </c>
-      <c r="G5" s="257"/>
-      <c r="H5" s="256">
+      <c r="G5" s="263"/>
+      <c r="H5" s="262">
         <v>5400</v>
       </c>
-      <c r="I5" s="257"/>
+      <c r="I5" s="263"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D6" s="20">
         <v>1898</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F6" s="258">
+        <v>438</v>
+      </c>
+      <c r="F6" s="260">
         <v>99</v>
       </c>
-      <c r="G6" s="259"/>
-      <c r="H6" s="258">
+      <c r="G6" s="261"/>
+      <c r="H6" s="260">
         <v>2164</v>
       </c>
-      <c r="I6" s="259"/>
+      <c r="I6" s="261"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D7" s="18">
         <v>1934</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F7" s="256">
+        <v>438</v>
+      </c>
+      <c r="F7" s="262">
         <v>138</v>
       </c>
-      <c r="G7" s="257"/>
-      <c r="H7" s="256">
+      <c r="G7" s="263"/>
+      <c r="H7" s="262">
         <v>2015</v>
       </c>
-      <c r="I7" s="257"/>
+      <c r="I7" s="263"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D8" s="20">
         <v>1909</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F8" s="258">
+        <v>438</v>
+      </c>
+      <c r="F8" s="260">
         <v>109</v>
       </c>
-      <c r="G8" s="259"/>
-      <c r="H8" s="258">
+      <c r="G8" s="261"/>
+      <c r="H8" s="260">
         <v>2848</v>
       </c>
-      <c r="I8" s="259"/>
+      <c r="I8" s="261"/>
     </row>
     <row r="9" spans="1:9" ht="42" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D9" s="18">
         <v>1952</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F9" s="256">
+        <v>438</v>
+      </c>
+      <c r="F9" s="262">
         <v>68</v>
       </c>
-      <c r="G9" s="257"/>
-      <c r="H9" s="256">
+      <c r="G9" s="263"/>
+      <c r="H9" s="262">
         <v>1538</v>
       </c>
-      <c r="I9" s="257"/>
+      <c r="I9" s="263"/>
     </row>
     <row r="10" spans="1:9" ht="23.25" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D10" s="17">
         <v>1952</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F10" s="258">
+        <v>438</v>
+      </c>
+      <c r="F10" s="260">
         <v>154</v>
       </c>
-      <c r="G10" s="259"/>
-      <c r="H10" s="258">
+      <c r="G10" s="261"/>
+      <c r="H10" s="260">
         <v>2833</v>
       </c>
-      <c r="I10" s="259"/>
+      <c r="I10" s="261"/>
     </row>
     <row r="11" spans="1:9" ht="23.25" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D11" s="18">
         <v>1936</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F11" s="256">
+        <v>438</v>
+      </c>
+      <c r="F11" s="262">
         <v>79</v>
       </c>
-      <c r="G11" s="257"/>
-      <c r="H11" s="256">
+      <c r="G11" s="263"/>
+      <c r="H11" s="262">
         <v>1838</v>
       </c>
-      <c r="I11" s="257"/>
+      <c r="I11" s="263"/>
     </row>
     <row r="12" spans="1:9" ht="32.4">
       <c r="A12" s="21" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D12" s="17">
         <v>1948</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F12" s="258">
+        <v>438</v>
+      </c>
+      <c r="F12" s="260">
         <v>67</v>
       </c>
-      <c r="G12" s="259"/>
-      <c r="H12" s="258">
+      <c r="G12" s="261"/>
+      <c r="H12" s="260">
         <v>2461</v>
       </c>
-      <c r="I12" s="259"/>
+      <c r="I12" s="261"/>
     </row>
     <row r="13" spans="1:9" ht="32.4">
       <c r="A13" s="21" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D13" s="18">
         <v>1906</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F13" s="256">
+        <v>438</v>
+      </c>
+      <c r="F13" s="262">
         <v>74</v>
       </c>
-      <c r="G13" s="257"/>
-      <c r="H13" s="256">
+      <c r="G13" s="263"/>
+      <c r="H13" s="262">
         <v>2471</v>
       </c>
-      <c r="I13" s="257"/>
+      <c r="I13" s="263"/>
     </row>
     <row r="14" spans="1:9" ht="32.4">
       <c r="A14" s="22" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D14" s="17">
         <v>1906</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F14" s="258">
+        <v>438</v>
+      </c>
+      <c r="F14" s="260">
         <v>62</v>
       </c>
-      <c r="G14" s="259"/>
-      <c r="H14" s="258">
+      <c r="G14" s="261"/>
+      <c r="H14" s="260">
         <v>2290</v>
       </c>
-      <c r="I14" s="259"/>
+      <c r="I14" s="261"/>
     </row>
     <row r="15" spans="1:9" ht="32.4">
       <c r="A15" s="22" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D15" s="18">
         <v>1903</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F15" s="256">
+        <v>438</v>
+      </c>
+      <c r="F15" s="262">
         <v>82</v>
       </c>
-      <c r="G15" s="257"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="257"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="262"/>
+      <c r="I15" s="263"/>
     </row>
     <row r="16" spans="1:9" ht="32.4">
       <c r="A16" s="22" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D16" s="17">
         <v>1902</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F16" s="258">
+        <v>438</v>
+      </c>
+      <c r="F16" s="260">
         <v>119</v>
       </c>
-      <c r="G16" s="259"/>
-      <c r="H16" s="258">
+      <c r="G16" s="261"/>
+      <c r="H16" s="260">
         <v>2700</v>
       </c>
-      <c r="I16" s="259"/>
+      <c r="I16" s="261"/>
     </row>
     <row r="17" spans="1:9" ht="32.4">
       <c r="A17" s="22" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D17" s="18">
         <v>1902</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F17" s="256">
+        <v>438</v>
+      </c>
+      <c r="F17" s="262">
         <v>99</v>
       </c>
-      <c r="G17" s="257"/>
-      <c r="H17" s="256">
+      <c r="G17" s="263"/>
+      <c r="H17" s="262">
         <v>1820</v>
       </c>
-      <c r="I17" s="257"/>
+      <c r="I17" s="263"/>
     </row>
     <row r="18" spans="1:9" ht="32.4">
       <c r="A18" s="22" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D18" s="17">
         <v>1902</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F18" s="258">
+        <v>438</v>
+      </c>
+      <c r="F18" s="260">
         <v>114</v>
       </c>
-      <c r="G18" s="259"/>
-      <c r="H18" s="258">
+      <c r="G18" s="261"/>
+      <c r="H18" s="260">
         <v>2447</v>
       </c>
-      <c r="I18" s="259"/>
+      <c r="I18" s="261"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="22" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D19" s="18">
         <v>1938</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F19" s="256">
+        <v>438</v>
+      </c>
+      <c r="F19" s="262">
         <v>63</v>
       </c>
-      <c r="G19" s="257"/>
-      <c r="H19" s="256">
+      <c r="G19" s="263"/>
+      <c r="H19" s="262">
         <v>1508</v>
       </c>
-      <c r="I19" s="257"/>
+      <c r="I19" s="263"/>
     </row>
     <row r="20" spans="1:9" ht="32.4">
       <c r="A20" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D20" s="17">
         <v>1952</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F20" s="258">
+        <v>438</v>
+      </c>
+      <c r="F20" s="260">
         <v>71</v>
       </c>
-      <c r="G20" s="259"/>
-      <c r="H20" s="258">
+      <c r="G20" s="261"/>
+      <c r="H20" s="260">
         <v>1230</v>
       </c>
-      <c r="I20" s="259"/>
+      <c r="I20" s="261"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="22" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D21" s="18">
         <v>1952</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F21" s="256">
+        <v>438</v>
+      </c>
+      <c r="F21" s="262">
         <v>100</v>
       </c>
-      <c r="G21" s="257"/>
-      <c r="H21" s="256">
+      <c r="G21" s="263"/>
+      <c r="H21" s="262">
         <v>2259</v>
       </c>
-      <c r="I21" s="257"/>
+      <c r="I21" s="263"/>
     </row>
     <row r="22" spans="1:9" ht="32.4">
       <c r="A22" s="22" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D22" s="17">
         <v>1912</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F22" s="258"/>
-      <c r="G22" s="259"/>
-      <c r="H22" s="258"/>
-      <c r="I22" s="259"/>
+        <v>438</v>
+      </c>
+      <c r="F22" s="260"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="261"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1">
       <c r="A23" s="22"/>
@@ -11147,53 +11147,18 @@
       <c r="C23" s="19"/>
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="257"/>
+      <c r="F23" s="262"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="262"/>
+      <c r="I23" s="263"/>
     </row>
     <row r="24" spans="1:9">
       <c r="C24" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -11205,6 +11170,41 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11231,7 +11231,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -11239,30 +11239,30 @@
     </row>
     <row r="2" spans="1:5" ht="76.5" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A3" s="260" t="s">
-        <v>519</v>
-      </c>
-      <c r="B3" s="260">
+      <c r="A3" s="264" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="264">
         <v>2010</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -11270,10 +11270,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A4" s="261"/>
-      <c r="B4" s="261"/>
+      <c r="A4" s="265"/>
+      <c r="B4" s="265"/>
       <c r="C4" s="6" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
@@ -11296,7 +11296,7 @@
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1">
       <c r="A7" s="184" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B7" s="9"/>
     </row>
@@ -11343,47 +11343,47 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="209" t="s">
+      <c r="A2" s="201"/>
+      <c r="B2" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="190" t="s">
+      <c r="D2" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="199" t="s">
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="208" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="202" t="s">
+      <c r="A3" s="202"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="203"/>
-      <c r="F3" s="204" t="s">
+      <c r="E3" s="212"/>
+      <c r="F3" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="204" t="s">
+      <c r="G3" s="212"/>
+      <c r="H3" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="205"/>
-      <c r="J3" s="200"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="209"/>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1">
-      <c r="A4" s="208"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="194"/>
+      <c r="A4" s="203"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="196"/>
       <c r="D4" s="36" t="s">
         <v>37</v>
       </c>
@@ -11402,7 +11402,7 @@
       <c r="I4" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="201"/>
+      <c r="J4" s="210"/>
     </row>
     <row r="5" spans="1:10" ht="22.2" customHeight="1">
       <c r="A5" s="26" t="s">
@@ -11466,7 +11466,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="184" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -11596,7 +11596,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="185" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -11787,35 +11787,35 @@
       <c r="A8" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="219"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="214"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
       <c r="A10" s="22" t="s">
@@ -12027,35 +12027,35 @@
       <c r="A18" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
-      <c r="M18" s="213"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="214"/>
+      <c r="B19" s="220"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="220"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="220"/>
+      <c r="K19" s="220"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="22" t="s">
@@ -12261,35 +12261,35 @@
       <c r="A28" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="213"/>
-      <c r="L28" s="213"/>
-      <c r="M28" s="213"/>
+      <c r="B28" s="219"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="219"/>
+      <c r="L28" s="219"/>
+      <c r="M28" s="219"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="214"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="214"/>
-      <c r="K29" s="214"/>
-      <c r="L29" s="214"/>
-      <c r="M29" s="214"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="220"/>
+      <c r="K29" s="220"/>
+      <c r="L29" s="220"/>
+      <c r="M29" s="220"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="22" t="s">
@@ -12429,35 +12429,35 @@
       <c r="A36" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="213"/>
-      <c r="C36" s="213"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="213"/>
-      <c r="L36" s="213"/>
-      <c r="M36" s="213"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="219"/>
+      <c r="D36" s="219"/>
+      <c r="E36" s="219"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="219"/>
+      <c r="K36" s="219"/>
+      <c r="L36" s="219"/>
+      <c r="M36" s="219"/>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="214"/>
-      <c r="C37" s="214"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="214"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="214"/>
-      <c r="I37" s="214"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="214"/>
-      <c r="L37" s="214"/>
-      <c r="M37" s="214"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="220"/>
+      <c r="K37" s="220"/>
+      <c r="L37" s="220"/>
+      <c r="M37" s="220"/>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="22" t="s">
@@ -12603,35 +12603,35 @@
       <c r="A44" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="213"/>
-      <c r="C44" s="213"/>
-      <c r="D44" s="213"/>
-      <c r="E44" s="213"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="213"/>
-      <c r="H44" s="213"/>
-      <c r="I44" s="213"/>
-      <c r="J44" s="213"/>
-      <c r="K44" s="213"/>
-      <c r="L44" s="213"/>
-      <c r="M44" s="213"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
+      <c r="D44" s="219"/>
+      <c r="E44" s="219"/>
+      <c r="F44" s="219"/>
+      <c r="G44" s="219"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="219"/>
+      <c r="K44" s="219"/>
+      <c r="L44" s="219"/>
+      <c r="M44" s="219"/>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="214"/>
-      <c r="C45" s="214"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="214"/>
-      <c r="F45" s="214"/>
-      <c r="G45" s="214"/>
-      <c r="H45" s="214"/>
-      <c r="I45" s="214"/>
-      <c r="J45" s="214"/>
-      <c r="K45" s="214"/>
-      <c r="L45" s="214"/>
-      <c r="M45" s="214"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="220"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="220"/>
+      <c r="M45" s="220"/>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="22" t="s">
@@ -12821,35 +12821,35 @@
       <c r="A54" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="213"/>
-      <c r="C54" s="213"/>
-      <c r="D54" s="213"/>
-      <c r="E54" s="213"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="213"/>
-      <c r="H54" s="213"/>
-      <c r="I54" s="213"/>
-      <c r="J54" s="213"/>
-      <c r="K54" s="213"/>
-      <c r="L54" s="213"/>
-      <c r="M54" s="213"/>
+      <c r="B54" s="219"/>
+      <c r="C54" s="219"/>
+      <c r="D54" s="219"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="219"/>
+      <c r="G54" s="219"/>
+      <c r="H54" s="219"/>
+      <c r="I54" s="219"/>
+      <c r="J54" s="219"/>
+      <c r="K54" s="219"/>
+      <c r="L54" s="219"/>
+      <c r="M54" s="219"/>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1">
       <c r="A55" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="214"/>
-      <c r="C55" s="214"/>
-      <c r="D55" s="214"/>
-      <c r="E55" s="214"/>
-      <c r="F55" s="214"/>
-      <c r="G55" s="214"/>
-      <c r="H55" s="214"/>
-      <c r="I55" s="214"/>
-      <c r="J55" s="214"/>
-      <c r="K55" s="214"/>
-      <c r="L55" s="214"/>
-      <c r="M55" s="214"/>
+      <c r="B55" s="220"/>
+      <c r="C55" s="220"/>
+      <c r="D55" s="220"/>
+      <c r="E55" s="220"/>
+      <c r="F55" s="220"/>
+      <c r="G55" s="220"/>
+      <c r="H55" s="220"/>
+      <c r="I55" s="220"/>
+      <c r="J55" s="220"/>
+      <c r="K55" s="220"/>
+      <c r="L55" s="220"/>
+      <c r="M55" s="220"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1">
       <c r="A56" s="22" t="s">
@@ -12998,35 +12998,35 @@
       <c r="A63" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="213"/>
-      <c r="C63" s="213"/>
-      <c r="D63" s="213"/>
-      <c r="E63" s="213"/>
-      <c r="F63" s="213"/>
-      <c r="G63" s="213"/>
-      <c r="H63" s="213"/>
-      <c r="I63" s="213"/>
-      <c r="J63" s="213"/>
-      <c r="K63" s="213"/>
-      <c r="L63" s="213"/>
-      <c r="M63" s="213"/>
+      <c r="B63" s="219"/>
+      <c r="C63" s="219"/>
+      <c r="D63" s="219"/>
+      <c r="E63" s="219"/>
+      <c r="F63" s="219"/>
+      <c r="G63" s="219"/>
+      <c r="H63" s="219"/>
+      <c r="I63" s="219"/>
+      <c r="J63" s="219"/>
+      <c r="K63" s="219"/>
+      <c r="L63" s="219"/>
+      <c r="M63" s="219"/>
     </row>
     <row r="64" spans="1:13" ht="30" customHeight="1">
       <c r="A64" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="214"/>
-      <c r="C64" s="214"/>
-      <c r="D64" s="214"/>
-      <c r="E64" s="214"/>
-      <c r="F64" s="214"/>
-      <c r="G64" s="214"/>
-      <c r="H64" s="214"/>
-      <c r="I64" s="214"/>
-      <c r="J64" s="214"/>
-      <c r="K64" s="214"/>
-      <c r="L64" s="214"/>
-      <c r="M64" s="214"/>
+      <c r="B64" s="220"/>
+      <c r="C64" s="220"/>
+      <c r="D64" s="220"/>
+      <c r="E64" s="220"/>
+      <c r="F64" s="220"/>
+      <c r="G64" s="220"/>
+      <c r="H64" s="220"/>
+      <c r="I64" s="220"/>
+      <c r="J64" s="220"/>
+      <c r="K64" s="220"/>
+      <c r="L64" s="220"/>
+      <c r="M64" s="220"/>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1">
       <c r="A65" s="22" t="s">
@@ -13257,35 +13257,35 @@
       <c r="A74" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="213"/>
-      <c r="C74" s="213"/>
-      <c r="D74" s="213"/>
-      <c r="E74" s="213"/>
-      <c r="F74" s="213"/>
-      <c r="G74" s="213"/>
-      <c r="H74" s="213"/>
-      <c r="I74" s="213"/>
-      <c r="J74" s="213"/>
-      <c r="K74" s="213"/>
-      <c r="L74" s="213"/>
-      <c r="M74" s="213"/>
+      <c r="B74" s="219"/>
+      <c r="C74" s="219"/>
+      <c r="D74" s="219"/>
+      <c r="E74" s="219"/>
+      <c r="F74" s="219"/>
+      <c r="G74" s="219"/>
+      <c r="H74" s="219"/>
+      <c r="I74" s="219"/>
+      <c r="J74" s="219"/>
+      <c r="K74" s="219"/>
+      <c r="L74" s="219"/>
+      <c r="M74" s="219"/>
     </row>
     <row r="75" spans="1:13" ht="30" customHeight="1">
       <c r="A75" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="214"/>
-      <c r="C75" s="214"/>
-      <c r="D75" s="214"/>
-      <c r="E75" s="214"/>
-      <c r="F75" s="214"/>
-      <c r="G75" s="214"/>
-      <c r="H75" s="214"/>
-      <c r="I75" s="214"/>
-      <c r="J75" s="214"/>
-      <c r="K75" s="214"/>
-      <c r="L75" s="214"/>
-      <c r="M75" s="214"/>
+      <c r="B75" s="220"/>
+      <c r="C75" s="220"/>
+      <c r="D75" s="220"/>
+      <c r="E75" s="220"/>
+      <c r="F75" s="220"/>
+      <c r="G75" s="220"/>
+      <c r="H75" s="220"/>
+      <c r="I75" s="220"/>
+      <c r="J75" s="220"/>
+      <c r="K75" s="220"/>
+      <c r="L75" s="220"/>
+      <c r="M75" s="220"/>
     </row>
     <row r="76" spans="1:13" ht="30" customHeight="1">
       <c r="A76" s="22" t="s">
@@ -13311,6 +13311,87 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="L5:M5"/>
@@ -13335,87 +13416,6 @@
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M74:M75"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <hyperlinks>
@@ -13461,22 +13461,22 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="34.950000000000003" customHeight="1">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="223" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="221" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
     </row>
     <row r="3" spans="1:9" ht="42" customHeight="1">
-      <c r="A3" s="219"/>
+      <c r="A3" s="221"/>
       <c r="B3" s="98" t="s">
         <v>184</v>
       </c>
@@ -13971,7 +13971,7 @@
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
       <c r="A35" s="186" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -14018,18 +14018,18 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="223" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="226"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="219"/>
+      <c r="A3" s="221"/>
       <c r="B3" s="138"/>
       <c r="C3" s="150"/>
       <c r="D3" s="150"/>
@@ -14094,8 +14094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.2"/>
@@ -14116,21 +14116,21 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="225" t="s">
-        <v>545</v>
-      </c>
-      <c r="B2" s="263" t="s">
+      <c r="A2" s="229" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickBot="1">
-      <c r="A3" s="226"/>
+      <c r="A3" s="230"/>
       <c r="B3" s="146">
         <v>2016</v>
       </c>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="6" spans="1:8" ht="24.9" customHeight="1">
       <c r="A6" s="139" t="s">
-        <v>234</v>
+        <v>540</v>
       </c>
       <c r="B6" s="140">
         <v>636.9</v>
@@ -14233,7 +14233,7 @@
     </row>
     <row r="7" spans="1:8" ht="24.9" customHeight="1">
       <c r="A7" s="139" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="147">
         <v>1754000</v>
@@ -14259,7 +14259,7 @@
     </row>
     <row r="8" spans="1:8" ht="24.9" customHeight="1">
       <c r="A8" s="139" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" s="140">
         <v>1468000</v>
@@ -14285,7 +14285,7 @@
     </row>
     <row r="9" spans="1:8" ht="24.9" customHeight="1">
       <c r="A9" s="139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="148">
         <v>67140.600000000006</v>
@@ -14311,7 +14311,7 @@
     </row>
     <row r="10" spans="1:8" ht="24.9" customHeight="1">
       <c r="A10" s="139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="140">
         <v>5984.1</v>
@@ -14337,7 +14337,7 @@
     </row>
     <row r="11" spans="1:8" ht="24.9" customHeight="1">
       <c r="A11" s="139" t="s">
-        <v>239</v>
+        <v>539</v>
       </c>
       <c r="B11" s="148">
         <v>2207.1</v>
@@ -14363,7 +14363,7 @@
     </row>
     <row r="12" spans="1:8" ht="24.9" customHeight="1">
       <c r="A12" s="139" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="140">
         <v>2117.1</v>
@@ -14389,7 +14389,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="186" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14423,23 +14423,23 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="221" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="219" t="s">
+      <c r="A2" s="223" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="219"/>
+      <c r="A3" s="221"/>
       <c r="B3" s="123">
         <v>2011</v>
       </c>
@@ -14458,7 +14458,7 @@
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999">
       <c r="A4" s="142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="140">
         <v>60377.91</v>
@@ -14518,7 +14518,7 @@
     </row>
     <row r="7" spans="1:6" ht="17.399999999999999">
       <c r="A7" s="143" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" s="144">
         <v>4548.01</v>
@@ -14598,7 +14598,7 @@
     </row>
     <row r="11" spans="1:6" ht="17.399999999999999">
       <c r="A11" s="143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B11" s="144">
         <v>1726.8</v>
@@ -15098,7 +15098,7 @@
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" ht="16.2">
       <c r="A36" s="141" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" ht="16.2">

--- a/(4.21)Database for China Agricultural.xlsx
+++ b/(4.21)Database for China Agricultural.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="892" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="892" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="3.1.1a" sheetId="61" r:id="rId1"/>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>Data from NRIAM</t>
-  </si>
-  <si>
-    <t>Table 3.2.1b. Crop calendar for different major cropping systems showing key activities</t>
   </si>
   <si>
     <t>Jan</t>
@@ -2475,6 +2472,35 @@
   </si>
   <si>
     <t>2010 </t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Table 3.2.1b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Crop calendar for different major cropping systems showing key activities</t>
+    </r>
     <phoneticPr fontId="47" type="noConversion"/>
   </si>
 </sst>
@@ -3834,7 +3860,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3994,6 +4019,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4006,12 +4037,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4067,6 +4092,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4084,33 +4136,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4129,24 +4154,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4184,7 +4210,7 @@
             <xdr:cNvPr id="2" name="Rectangle 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <ele xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns=""/>
+                  <ele xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5155,7 +5181,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+      <mc:Fallback xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Rectangle 1"/>
@@ -6295,8 +6321,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
-        <v>536</v>
+      <c r="A1" s="189" t="s">
+        <v>535</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6307,66 +6333,66 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="194"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="193"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="196"/>
-      <c r="B3" s="176" t="s">
+      <c r="A3" s="195"/>
+      <c r="B3" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="177" t="s">
+      <c r="D3" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="H3" s="176" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="B4" s="178">
+        <v>536</v>
+      </c>
+      <c r="B4" s="177">
         <v>960000</v>
       </c>
-      <c r="C4" s="178">
+      <c r="C4" s="177">
         <v>960000</v>
       </c>
-      <c r="D4" s="178">
+      <c r="D4" s="177">
         <v>960000</v>
       </c>
-      <c r="E4" s="178">
+      <c r="E4" s="177">
         <v>960000</v>
       </c>
-      <c r="F4" s="178">
+      <c r="F4" s="177">
         <v>960000</v>
       </c>
-      <c r="G4" s="178">
+      <c r="G4" s="177">
         <v>960000</v>
       </c>
-      <c r="H4" s="178">
+      <c r="H4" s="177">
         <v>960000</v>
       </c>
     </row>
@@ -6374,25 +6400,25 @@
       <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="179">
+      <c r="B5" s="178">
         <v>284925</v>
       </c>
-      <c r="C5" s="179">
+      <c r="C5" s="178">
         <v>305904.09999999998</v>
       </c>
-      <c r="D5" s="179">
+      <c r="D5" s="178">
         <v>305904.09999999998</v>
       </c>
-      <c r="E5" s="179">
+      <c r="E5" s="178">
         <v>312590</v>
       </c>
-      <c r="F5" s="179">
+      <c r="F5" s="178">
         <v>312590</v>
       </c>
-      <c r="G5" s="179">
+      <c r="G5" s="178">
         <v>312590</v>
       </c>
-      <c r="H5" s="179">
+      <c r="H5" s="178">
         <v>312590</v>
       </c>
     </row>
@@ -6400,25 +6426,25 @@
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="179">
+      <c r="B6" s="178">
         <v>330700</v>
       </c>
-      <c r="C6" s="179">
+      <c r="C6" s="178">
         <v>330700</v>
       </c>
-      <c r="D6" s="179">
+      <c r="D6" s="178">
         <v>330700</v>
       </c>
-      <c r="E6" s="179">
+      <c r="E6" s="178">
         <v>330700</v>
       </c>
-      <c r="F6" s="179">
+      <c r="F6" s="178">
         <v>330700</v>
       </c>
-      <c r="G6" s="179">
+      <c r="G6" s="178">
         <v>330700</v>
       </c>
-      <c r="H6" s="179">
+      <c r="H6" s="178">
         <v>380000</v>
       </c>
     </row>
@@ -6426,37 +6452,37 @@
       <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="179">
+      <c r="B8" s="178">
         <v>121270</v>
       </c>
-      <c r="C8" s="179">
+      <c r="C8" s="178">
         <v>121270</v>
       </c>
-      <c r="D8" s="179">
+      <c r="D8" s="178">
         <v>121270</v>
       </c>
-      <c r="E8" s="179">
+      <c r="E8" s="178">
         <v>121270</v>
       </c>
-      <c r="F8" s="179">
+      <c r="F8" s="178">
         <v>121270</v>
       </c>
-      <c r="G8" s="179">
+      <c r="G8" s="178">
         <v>135000</v>
       </c>
-      <c r="H8" s="179">
+      <c r="H8" s="178">
         <v>135000</v>
       </c>
     </row>
@@ -6464,25 +6490,25 @@
       <c r="A9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="178">
+      <c r="B9" s="177">
         <v>156266</v>
       </c>
-      <c r="C9" s="178">
+      <c r="C9" s="177">
         <v>158614</v>
       </c>
-      <c r="D9" s="178">
+      <c r="D9" s="177">
         <v>160675</v>
       </c>
-      <c r="E9" s="178">
+      <c r="E9" s="177">
         <v>162283</v>
       </c>
-      <c r="F9" s="178">
+      <c r="F9" s="177">
         <v>163416</v>
       </c>
-      <c r="G9" s="178">
+      <c r="G9" s="177">
         <v>164627</v>
       </c>
-      <c r="H9" s="178">
+      <c r="H9" s="177">
         <v>165446</v>
       </c>
     </row>
@@ -6490,31 +6516,31 @@
       <c r="A10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="178">
+      <c r="B10" s="177">
         <v>58471.7</v>
       </c>
-      <c r="C10" s="178">
+      <c r="C10" s="177">
         <v>59261.4</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="177">
         <v>60347.7</v>
       </c>
-      <c r="E10" s="178">
+      <c r="E10" s="177">
         <v>61681.599999999999</v>
       </c>
-      <c r="F10" s="178">
+      <c r="F10" s="177">
         <v>62490.5</v>
       </c>
-      <c r="G10" s="178">
+      <c r="G10" s="177">
         <v>63473.3</v>
       </c>
-      <c r="H10" s="178">
+      <c r="H10" s="177">
         <v>64539.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="181" t="s">
-        <v>515</v>
+      <c r="A11" s="180" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1"/>
@@ -6545,25 +6571,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="97" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="222" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="223" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="226"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="225"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="221"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="123">
         <v>2017</v>
       </c>
@@ -6588,7 +6614,7 @@
     </row>
     <row r="4" spans="1:8" ht="23.1" customHeight="1">
       <c r="A4" s="139" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" s="140">
         <v>33262</v>
@@ -6614,7 +6640,7 @@
     </row>
     <row r="5" spans="1:8" ht="23.1" customHeight="1">
       <c r="A5" s="139" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5" s="140">
         <v>12457</v>
@@ -6640,7 +6666,7 @@
     </row>
     <row r="6" spans="1:8" ht="23.1" customHeight="1">
       <c r="A6" s="139" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="140">
         <v>5425</v>
@@ -6666,7 +6692,7 @@
     </row>
     <row r="7" spans="1:8" ht="23.1" customHeight="1">
       <c r="A7" s="139" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" s="140">
         <v>98795</v>
@@ -6692,7 +6718,7 @@
     </row>
     <row r="8" spans="1:8" ht="23.1" customHeight="1">
       <c r="A8" s="139" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="140">
         <v>732</v>
@@ -6718,7 +6744,7 @@
     </row>
     <row r="9" spans="1:8" ht="23.1" customHeight="1">
       <c r="A9" s="139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="140">
         <v>3934</v>
@@ -6744,7 +6770,7 @@
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1">
       <c r="A10" s="139" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="140">
         <v>94129</v>
@@ -6770,7 +6796,7 @@
     </row>
     <row r="11" spans="1:8" ht="23.1" customHeight="1">
       <c r="A11" s="139" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" s="140">
         <v>9035</v>
@@ -6796,7 +6822,7 @@
     </row>
     <row r="12" spans="1:8" ht="23.1" customHeight="1">
       <c r="A12" s="139" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="140">
         <v>7210</v>
@@ -6822,7 +6848,7 @@
     </row>
     <row r="13" spans="1:8" ht="23.1" customHeight="1">
       <c r="A13" s="139" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="140">
         <v>1117</v>
@@ -6848,7 +6874,7 @@
     </row>
     <row r="14" spans="1:8" ht="23.1" customHeight="1">
       <c r="A14" s="139" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="140">
         <v>708</v>
@@ -6874,7 +6900,7 @@
     </row>
     <row r="15" spans="1:8" ht="23.1" customHeight="1">
       <c r="A15" s="139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15" s="140">
         <v>34319</v>
@@ -6900,7 +6926,7 @@
     </row>
     <row r="16" spans="1:8" ht="23.1" customHeight="1">
       <c r="A16" s="139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="140">
         <v>23824</v>
@@ -6926,7 +6952,7 @@
     </row>
     <row r="17" spans="1:8" ht="23.1" customHeight="1">
       <c r="A17" s="139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="140">
         <v>125839</v>
@@ -6952,7 +6978,7 @@
     </row>
     <row r="18" spans="1:8" ht="23.1" customHeight="1">
       <c r="A18" s="139" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="140">
         <v>31</v>
@@ -6978,7 +7004,7 @@
     </row>
     <row r="19" spans="1:8" ht="23.1" customHeight="1">
       <c r="A19" s="139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="140">
         <v>40946</v>
@@ -7002,7 +7028,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="141" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7042,34 +7068,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="51.75" customHeight="1">
+      <c r="A2" s="228" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A2" s="229" t="s">
+      <c r="B2" s="222" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="223" t="s">
+      <c r="C2" s="223" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="224" t="s">
+      <c r="D2" s="225"/>
+    </row>
+    <row r="3" spans="1:4" ht="52.5" customHeight="1">
+      <c r="A3" s="229"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="226"/>
-    </row>
-    <row r="3" spans="1:4" ht="52.5" customHeight="1">
-      <c r="A3" s="230"/>
-      <c r="B3" s="221"/>
-      <c r="C3" s="98" t="s">
+      <c r="D3" s="99" t="s">
         <v>266</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="131" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" s="132"/>
       <c r="C4" s="110"/>
@@ -7077,7 +7103,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="133" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="134"/>
       <c r="C5" s="135"/>
@@ -7103,7 +7129,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="111" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7134,7 +7160,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1">
@@ -7142,19 +7168,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="122" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="D2" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="E2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="F2" s="122" t="s">
         <v>275</v>
-      </c>
-      <c r="F2" s="122" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7263,8 +7289,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.2">
-      <c r="A8" s="187" t="s">
-        <v>523</v>
+      <c r="A8" s="186" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.2">
@@ -7300,40 +7326,40 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="194" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="195" t="s">
+      <c r="B2" s="191">
+        <v>2010</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="191">
+        <v>2015</v>
+      </c>
+      <c r="E2" s="193"/>
+    </row>
+    <row r="3" spans="1:5" ht="39" customHeight="1">
+      <c r="A3" s="195"/>
+      <c r="B3" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="192">
-        <v>2010</v>
-      </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="192">
-        <v>2015</v>
-      </c>
-      <c r="E2" s="194"/>
-    </row>
-    <row r="3" spans="1:5" ht="39" customHeight="1">
-      <c r="A3" s="196"/>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="D3" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7342,7 +7368,7 @@
     </row>
     <row r="5" spans="1:5" ht="22.95" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -7351,7 +7377,7 @@
     </row>
     <row r="6" spans="1:5" ht="22.95" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7360,7 +7386,7 @@
     </row>
     <row r="7" spans="1:5" ht="22.95" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="121"/>
       <c r="C7" s="8"/>
@@ -7369,7 +7395,7 @@
     </row>
     <row r="8" spans="1:5" ht="22.95" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="6"/>
@@ -7378,7 +7404,7 @@
     </row>
     <row r="9" spans="1:5" ht="22.95" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7387,7 +7413,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7417,66 +7443,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="97" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A2" s="230" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="230" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="231" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="231" t="s">
+      <c r="C2" s="230" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="D2" s="230" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="231" t="s">
+      <c r="E2" s="230" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="F2" s="233" t="s">
         <v>290</v>
       </c>
-      <c r="F2" s="234" t="s">
+      <c r="G2" s="234"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="230" t="s">
         <v>291</v>
       </c>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="231" t="s">
+      <c r="J2" s="230" t="s">
         <v>292</v>
       </c>
-      <c r="J2" s="231" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="231"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+    </row>
+    <row r="4" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A4" s="232"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="117" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="232"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-    </row>
-    <row r="4" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A4" s="233"/>
-      <c r="B4" s="233"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="117" t="s">
+      <c r="G4" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="H4" s="117" t="s">
         <v>295</v>
       </c>
-      <c r="H4" s="117" t="s">
-        <v>296</v>
-      </c>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="118">
@@ -7609,8 +7635,8 @@
       <c r="J9" s="114"/>
     </row>
     <row r="10" spans="1:10" ht="16.2">
-      <c r="A10" s="188" t="s">
-        <v>524</v>
+      <c r="A10" s="187" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -7646,22 +7672,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="222" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="223" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="226"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="225"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="221"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="98">
         <v>2001</v>
       </c>
@@ -7669,7 +7695,7 @@
         <v>2004</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3" s="99">
         <v>2014</v>
@@ -7677,7 +7703,7 @@
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
       <c r="A4" s="100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="112">
         <v>75.765000000000001</v>
@@ -7690,7 +7716,7 @@
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
       <c r="A5" s="103" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" s="112">
         <v>12.14</v>
@@ -7707,7 +7733,7 @@
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="A6" s="103" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="112">
         <v>12.14</v>
@@ -7720,7 +7746,7 @@
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
       <c r="A7" s="103" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" s="113">
         <v>83.355000000000004</v>
@@ -7733,7 +7759,7 @@
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
       <c r="A8" s="105" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" s="112"/>
       <c r="C8" s="114"/>
@@ -7742,7 +7768,7 @@
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
       <c r="A9" s="105" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" s="113"/>
       <c r="C9" s="115"/>
@@ -7751,7 +7777,7 @@
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
       <c r="A10" s="105" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="112"/>
       <c r="C10" s="114"/>
@@ -7760,7 +7786,7 @@
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
       <c r="A11" s="105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" s="113">
         <v>4282.1000000000004</v>
@@ -7777,7 +7803,7 @@
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
       <c r="A12" s="105" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" s="112">
         <v>2355.3000000000002</v>
@@ -7794,7 +7820,7 @@
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
       <c r="A13" s="103" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B13" s="107"/>
       <c r="C13" s="108"/>
@@ -7803,7 +7829,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="116" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -7836,38 +7862,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="223" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="224" t="s">
+      <c r="A2" s="222" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="226"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="225"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="221"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="98">
         <v>2001</v>
       </c>
       <c r="C3" s="99" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="99" t="s">
         <v>310</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33.75" customHeight="1">
       <c r="A4" s="100" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
@@ -7876,7 +7902,7 @@
     </row>
     <row r="5" spans="1:5" ht="33.75" customHeight="1">
       <c r="A5" s="103" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="104"/>
@@ -7885,7 +7911,7 @@
     </row>
     <row r="6" spans="1:5" ht="33.75" customHeight="1">
       <c r="A6" s="103" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B6" s="101">
         <v>46.5</v>
@@ -7902,7 +7928,7 @@
     </row>
     <row r="7" spans="1:5" ht="33.75" customHeight="1">
       <c r="A7" s="103" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B7" s="104">
         <v>2656.8</v>
@@ -7917,7 +7943,7 @@
     </row>
     <row r="8" spans="1:5" ht="33.75" customHeight="1">
       <c r="A8" s="105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8" s="106"/>
       <c r="C8" s="106"/>
@@ -7926,7 +7952,7 @@
     </row>
     <row r="9" spans="1:5" ht="33.75" customHeight="1">
       <c r="A9" s="103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" s="107"/>
       <c r="C9" s="108"/>
@@ -7935,7 +7961,7 @@
     </row>
     <row r="10" spans="1:5" ht="33.75" customHeight="1">
       <c r="A10" s="103" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" s="109"/>
       <c r="C10" s="110"/>
@@ -7943,8 +7969,8 @@
       <c r="E10" s="110"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="188" t="s">
-        <v>526</v>
+      <c r="A11" s="187" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -7973,38 +7999,38 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.8" thickBot="1">
       <c r="A1" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A2" s="195" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="192" t="s">
+      <c r="A2" s="194" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A3" s="196"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="89">
         <v>2001</v>
       </c>
       <c r="C3" s="90" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" s="90" t="s">
         <v>541</v>
       </c>
-      <c r="D3" s="90" t="s">
-        <v>542</v>
-      </c>
       <c r="E3" s="90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="86">
         <v>1722.9</v>
@@ -8019,7 +8045,7 @@
     </row>
     <row r="5" spans="1:5" ht="24.75" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -8028,7 +8054,7 @@
     </row>
     <row r="6" spans="1:5" ht="24.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
@@ -8037,7 +8063,7 @@
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
@@ -8046,7 +8072,7 @@
     </row>
     <row r="8" spans="1:5" ht="24.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8" s="91"/>
       <c r="C8" s="92"/>
@@ -8055,7 +8081,7 @@
     </row>
     <row r="9" spans="1:5" ht="24.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" s="95"/>
       <c r="C9" s="96"/>
@@ -8063,8 +8089,8 @@
       <c r="E9" s="96"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="184" t="s">
-        <v>527</v>
+      <c r="A10" s="183" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8097,38 +8123,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="194" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="193"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="195"/>
+      <c r="B3" s="14" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="195" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="192" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="196"/>
-      <c r="B3" s="14" t="s">
-        <v>325</v>
       </c>
       <c r="C3" s="15">
         <v>2004</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36.75" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="40">
         <v>8692.4</v>
@@ -8143,7 +8169,7 @@
     </row>
     <row r="5" spans="1:5" ht="36.75" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -8154,7 +8180,7 @@
     </row>
     <row r="6" spans="1:5" ht="36.75" customHeight="1">
       <c r="A6" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -8163,7 +8189,7 @@
     </row>
     <row r="7" spans="1:5" ht="36.75" customHeight="1">
       <c r="A7" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -8172,7 +8198,7 @@
     </row>
     <row r="8" spans="1:5" ht="36.75" customHeight="1">
       <c r="A8" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -8180,8 +8206,8 @@
       <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="184" t="s">
-        <v>527</v>
+      <c r="A9" s="183" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8216,51 +8242,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A2" s="248" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="B2" s="248" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="240" t="s">
+      <c r="C2" s="71" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="D2" s="242" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="248" t="s">
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="243" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="249" t="s">
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="244"/>
+    </row>
+    <row r="3" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A3" s="249"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="252" t="s">
         <v>335</v>
       </c>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="250"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A3" s="241"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="244" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="253"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="247"/>
     </row>
     <row r="4" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A4" s="241"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="244"/>
+      <c r="A4" s="249"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="252"/>
       <c r="D4" s="72">
         <v>2014</v>
       </c>
@@ -8287,14 +8313,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1">
-      <c r="A5" s="242" t="s">
+      <c r="A5" s="250" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="73" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>338</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>339</v>
       </c>
       <c r="D5" s="74">
         <v>129300</v>
@@ -8309,23 +8335,23 @@
         <v>13225400</v>
       </c>
       <c r="H5" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" s="74" t="s">
         <v>340</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="J5" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="K5" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="K5" s="74" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1">
-      <c r="A6" s="243"/>
+      <c r="A6" s="251"/>
       <c r="B6" s="75"/>
       <c r="C6" s="76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
@@ -8337,14 +8363,14 @@
       <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A7" s="240" t="s">
+      <c r="A7" s="248" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="77" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>346</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>347</v>
       </c>
       <c r="D7" s="78">
         <v>900800</v>
@@ -8352,49 +8378,49 @@
       <c r="E7" s="78">
         <v>1921925</v>
       </c>
-      <c r="F7" s="245">
+      <c r="F7" s="239">
         <v>1115570</v>
       </c>
-      <c r="G7" s="245">
+      <c r="G7" s="239">
         <v>1121100</v>
       </c>
       <c r="H7" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7" s="78" t="s">
         <v>348</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="J7" s="239" t="s">
         <v>349</v>
       </c>
-      <c r="J7" s="245" t="s">
+      <c r="K7" s="239" t="s">
         <v>350</v>
       </c>
-      <c r="K7" s="245" t="s">
-        <v>351</v>
-      </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="243"/>
+      <c r="A8" s="251"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="80"/>
       <c r="E8" s="81"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="240"/>
       <c r="H8" s="80"/>
       <c r="I8" s="80"/>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="240"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1">
       <c r="A9" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="C9" s="84" t="s">
         <v>354</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>355</v>
       </c>
       <c r="D9" s="85">
         <v>613900</v>
@@ -8402,26 +8428,26 @@
       <c r="E9" s="85">
         <v>1663848</v>
       </c>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
       <c r="H9" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="I9" s="80" t="s">
         <v>356</v>
       </c>
-      <c r="I9" s="80" t="s">
-        <v>357</v>
-      </c>
-      <c r="J9" s="246"/>
-      <c r="K9" s="246"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
       <c r="A10" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="C10" s="87" t="s">
         <v>359</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>360</v>
       </c>
       <c r="D10" s="88">
         <v>434676</v>
@@ -8429,16 +8455,16 @@
       <c r="E10" s="88">
         <v>335950</v>
       </c>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
       <c r="H10" s="88" t="s">
+        <v>360</v>
+      </c>
+      <c r="I10" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="I10" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="J10" s="247"/>
-      <c r="K10" s="247"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
     </row>
     <row r="11" spans="1:11">
       <c r="C11" s="10" t="s">
@@ -8447,17 +8473,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:K3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8489,30 +8515,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="192" t="s">
+      <c r="B2" s="198"/>
+      <c r="C2" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="193"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="196"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="174" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="45"/>
@@ -8569,18 +8595,18 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="198"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="49"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A10" s="184" t="s">
-        <v>516</v>
+      <c r="A10" s="183" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8613,59 +8639,59 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51.75" customHeight="1">
+      <c r="A2" s="253" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="51.75" customHeight="1">
-      <c r="A2" s="254" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="E2" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="253" t="s">
         <v>364</v>
       </c>
-      <c r="E2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="F2" s="254" t="s">
+      <c r="G2" s="253" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="254" t="s">
+      <c r="H2" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="I2" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="I2" s="64" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="64.5" customHeight="1">
+      <c r="A3" s="254"/>
+      <c r="B3" s="66" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A3" s="255"/>
-      <c r="B3" s="66" t="s">
+      <c r="C3" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="66" t="s">
+      <c r="I3" s="66" t="s">
         <v>370</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8745,8 +8771,8 @@
       <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="184" t="s">
-        <v>529</v>
+      <c r="A8" s="183" t="s">
+        <v>528</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -8754,8 +8780,8 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="183" t="s">
-        <v>528</v>
+      <c r="A9" s="182" t="s">
+        <v>527</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -8763,7 +8789,7 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="183"/>
+      <c r="A10" s="182"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -8811,58 +8837,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="255" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+    </row>
+    <row r="2" spans="1:6" s="63" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="253" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-    </row>
-    <row r="2" spans="1:6" s="63" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="254" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="C2" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="D2" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>375</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>364</v>
-      </c>
-      <c r="E2" s="64" t="s">
+      <c r="F2" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="64" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="39" customHeight="1">
+      <c r="A3" s="256"/>
+      <c r="B3" s="65" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" customHeight="1">
-      <c r="A3" s="257"/>
-      <c r="B3" s="65" t="s">
+      <c r="C3" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="D3" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="E3" s="65" t="s">
-        <v>381</v>
-      </c>
       <c r="F3" s="65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>2013</v>
       </c>
-      <c r="B4" s="191">
+      <c r="B4" s="190">
         <v>103906.8</v>
       </c>
       <c r="C4" s="6">
@@ -8951,8 +8977,8 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="184" t="s">
-        <v>530</v>
+      <c r="A9" s="183" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -8984,57 +9010,57 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A2" s="203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="204" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="61" t="s">
+      <c r="C2" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="H2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A3" s="205"/>
+      <c r="B3" s="13" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="206"/>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>390</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9091,7 +9117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -9103,91 +9129,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="255" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+    </row>
+    <row r="2" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A2" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="191" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="191" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="193"/>
+      <c r="F2" s="191" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A2" s="195" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="192" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="192" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="194"/>
-      <c r="F2" s="192" t="s">
+      <c r="G2" s="193"/>
+      <c r="H2" s="191" t="s">
         <v>393</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="192" t="s">
+      <c r="I2" s="193"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1">
+      <c r="A3" s="206"/>
+      <c r="B3" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="I2" s="194"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="D3" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="195"/>
+      <c r="B4" s="56" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="C4" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="F3" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="G3" s="55" t="s">
+      <c r="E4" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="H3" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="I3" s="55" t="s">
+      <c r="G4" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="57" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="196"/>
-      <c r="B4" s="56" t="s">
+      <c r="I4" s="57" t="s">
         <v>397</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>397</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>397</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>398</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>397</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9457,55 +9483,55 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="47.1" customHeight="1">
+      <c r="A2" s="257" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="47.1" customHeight="1">
-      <c r="A2" s="258" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="C2" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="D2" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="50" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="F2" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="G2" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="H2" s="50" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1">
+      <c r="A3" s="258"/>
+      <c r="B3" s="51" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1">
-      <c r="A3" s="259"/>
-      <c r="B3" s="51" t="s">
+      <c r="C3" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="E3" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>408</v>
-      </c>
       <c r="F3" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G3" s="51"/>
       <c r="H3" s="51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9712,8 +9738,8 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="189" t="s">
-        <v>532</v>
+      <c r="A13" s="188" t="s">
+        <v>531</v>
       </c>
       <c r="B13" s="9"/>
     </row>
@@ -9751,7 +9777,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1">
@@ -9759,13 +9785,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9889,8 +9915,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="184" t="s">
-        <v>533</v>
+      <c r="A11" s="183" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -9919,54 +9945,54 @@
   <sheetData>
     <row r="1" spans="1:6" ht="47.1" customHeight="1">
       <c r="A1" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A2" s="203" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="B2" s="194" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="C2" s="191" t="s">
         <v>416</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="193"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A3" s="204"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="210" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A3" s="205"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="211" t="s">
+      <c r="D3" s="211"/>
+      <c r="E3" s="212" t="s">
         <v>418</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213" t="s">
+      <c r="F3" s="211"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="205"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="F3" s="212"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="206"/>
-      <c r="B4" s="196"/>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>421</v>
-      </c>
       <c r="E4" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>420</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="8"/>
@@ -9976,7 +10002,7 @@
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="6"/>
@@ -9986,7 +10012,7 @@
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1">
       <c r="A7" s="39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="8"/>
@@ -9996,7 +10022,7 @@
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="6"/>
@@ -10006,7 +10032,7 @@
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1">
       <c r="A9" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="8"/>
@@ -10016,7 +10042,7 @@
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1">
       <c r="A10" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="6"/>
@@ -10026,7 +10052,7 @@
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="8"/>
@@ -10035,16 +10061,16 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="184" t="s">
-        <v>534</v>
+      <c r="A12" s="183" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="32.4">
-      <c r="A14" s="182" t="s">
-        <v>531</v>
+      <c r="A14" s="181" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -10079,55 +10105,55 @@
   <sheetData>
     <row r="1" spans="1:7" ht="50.1" customHeight="1">
       <c r="A1" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A2" s="203" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45.75" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="B2" s="203" t="s">
         <v>430</v>
       </c>
-      <c r="B2" s="204" t="s">
+      <c r="C2" s="203" t="s">
         <v>431</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="D2" s="203" t="s">
         <v>432</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="E2" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="E2" s="195" t="s">
+      <c r="F2" s="191" t="s">
         <v>434</v>
       </c>
-      <c r="F2" s="192" t="s">
-        <v>435</v>
-      </c>
-      <c r="G2" s="194"/>
+      <c r="G2" s="193"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="196"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="195"/>
       <c r="F3" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>420</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.9" customHeight="1">
       <c r="A4" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>436</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>437</v>
       </c>
       <c r="C4" s="28">
         <v>1956</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -10135,16 +10161,16 @@
     </row>
     <row r="5" spans="1:7" ht="39.9" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C5" s="17">
         <v>1957</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="31"/>
@@ -10152,16 +10178,16 @@
     </row>
     <row r="6" spans="1:7" ht="39.9" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C6" s="17">
         <v>1959</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="33"/>
@@ -10169,16 +10195,16 @@
     </row>
     <row r="7" spans="1:7" ht="39.9" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C7" s="20">
         <v>1958</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="31"/>
@@ -10186,16 +10212,16 @@
     </row>
     <row r="8" spans="1:7" ht="39.9" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C8" s="18">
         <v>1958</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="33"/>
@@ -10203,16 +10229,16 @@
     </row>
     <row r="9" spans="1:7" ht="39.9" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C9" s="18">
         <v>1958</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="33"/>
@@ -10220,16 +10246,16 @@
     </row>
     <row r="10" spans="1:7" ht="39.9" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C10" s="18">
         <v>1958</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="33"/>
@@ -10237,16 +10263,16 @@
     </row>
     <row r="11" spans="1:7" ht="39.9" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C11" s="18">
         <v>1959</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="33"/>
@@ -10254,16 +10280,16 @@
     </row>
     <row r="12" spans="1:7" ht="39.9" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C12" s="34">
         <v>1958</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -10271,16 +10297,16 @@
     </row>
     <row r="13" spans="1:7" ht="39.9" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C13" s="34">
         <v>1959</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -10288,16 +10314,16 @@
     </row>
     <row r="14" spans="1:7" ht="39.9" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C14" s="34">
         <v>1958</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -10305,16 +10331,16 @@
     </row>
     <row r="15" spans="1:7" ht="39.9" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C15" s="34">
         <v>1958</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -10322,16 +10348,16 @@
     </row>
     <row r="16" spans="1:7" ht="39.9" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C16" s="34">
         <v>1953</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -10339,16 +10365,16 @@
     </row>
     <row r="17" spans="1:7" ht="39.9" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C17" s="34">
         <v>1959</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -10356,16 +10382,16 @@
     </row>
     <row r="18" spans="1:7" ht="39.9" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C18" s="34">
         <v>1960</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
@@ -10373,16 +10399,16 @@
     </row>
     <row r="19" spans="1:7" ht="39.9" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C19" s="34">
         <v>1960</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -10390,16 +10416,16 @@
     </row>
     <row r="20" spans="1:7" ht="39.9" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C20" s="34">
         <v>1958</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
@@ -10407,16 +10433,16 @@
     </row>
     <row r="21" spans="1:7" ht="39.9" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C21" s="34">
         <v>1958</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -10424,16 +10450,16 @@
     </row>
     <row r="22" spans="1:7" ht="39.9" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C22" s="34">
         <v>1958</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -10441,16 +10467,16 @@
     </row>
     <row r="23" spans="1:7" ht="39.9" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C23" s="34">
         <v>1958</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
@@ -10458,16 +10484,16 @@
     </row>
     <row r="24" spans="1:7" ht="39.9" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C24" s="34">
         <v>1958</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -10475,16 +10501,16 @@
     </row>
     <row r="25" spans="1:7" ht="39.9" customHeight="1">
       <c r="A25" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="D25" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -10492,16 +10518,16 @@
     </row>
     <row r="26" spans="1:7" ht="39.9" customHeight="1">
       <c r="A26" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C26" s="34">
         <v>1959</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -10509,16 +10535,16 @@
     </row>
     <row r="27" spans="1:7" ht="39.9" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C27" s="18">
         <v>1956</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="33"/>
@@ -10526,16 +10552,16 @@
     </row>
     <row r="28" spans="1:7" ht="39.9" customHeight="1">
       <c r="A28" s="32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C28" s="18">
         <v>1959</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="33"/>
@@ -10543,16 +10569,16 @@
     </row>
     <row r="29" spans="1:7" ht="39.9" customHeight="1">
       <c r="A29" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C29" s="34">
         <v>1963</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -10560,24 +10586,24 @@
     </row>
     <row r="30" spans="1:7" ht="39.9" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C30" s="34">
         <v>1959</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="186" t="s">
-        <v>535</v>
+      <c r="A31" s="185" t="s">
+        <v>534</v>
       </c>
       <c r="B31" s="35"/>
     </row>
@@ -10619,527 +10645,527 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="48.6">
+      <c r="A2" s="203" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="203" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="48.6">
-      <c r="A2" s="204" t="s">
+      <c r="C2" s="203" t="s">
         <v>430</v>
       </c>
-      <c r="B2" s="204" t="s">
+      <c r="D2" s="203" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="191" t="s">
         <v>468</v>
       </c>
-      <c r="C2" s="204" t="s">
-        <v>431</v>
-      </c>
-      <c r="D2" s="204" t="s">
-        <v>432</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="192" t="s">
+      <c r="G2" s="193"/>
+      <c r="H2" s="191" t="s">
         <v>469</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="192" t="s">
-        <v>470</v>
-      </c>
-      <c r="I2" s="194"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
       <c r="E3" s="13"/>
       <c r="F3" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>421</v>
-      </c>
       <c r="H3" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48.9" customHeight="1">
       <c r="A4" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>472</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>473</v>
       </c>
       <c r="D4" s="17">
         <v>1905</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F4" s="260">
+        <v>437</v>
+      </c>
+      <c r="F4" s="261">
         <v>158</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="260">
+      <c r="G4" s="262"/>
+      <c r="H4" s="261">
         <v>1728</v>
       </c>
-      <c r="I4" s="261"/>
+      <c r="I4" s="262"/>
     </row>
     <row r="5" spans="1:9" ht="48" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>472</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>473</v>
       </c>
       <c r="D5" s="18">
         <v>1902</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="F5" s="262">
+        <v>437</v>
+      </c>
+      <c r="F5" s="259">
         <v>450</v>
       </c>
-      <c r="G5" s="263"/>
-      <c r="H5" s="262">
+      <c r="G5" s="260"/>
+      <c r="H5" s="259">
         <v>5400</v>
       </c>
-      <c r="I5" s="263"/>
+      <c r="I5" s="260"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>472</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>473</v>
       </c>
       <c r="D6" s="20">
         <v>1898</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F6" s="260">
+        <v>437</v>
+      </c>
+      <c r="F6" s="261">
         <v>99</v>
       </c>
-      <c r="G6" s="261"/>
-      <c r="H6" s="260">
+      <c r="G6" s="262"/>
+      <c r="H6" s="261">
         <v>2164</v>
       </c>
-      <c r="I6" s="261"/>
+      <c r="I6" s="262"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>472</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>473</v>
       </c>
       <c r="D7" s="18">
         <v>1934</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="F7" s="262">
+        <v>437</v>
+      </c>
+      <c r="F7" s="259">
         <v>138</v>
       </c>
-      <c r="G7" s="263"/>
-      <c r="H7" s="262">
+      <c r="G7" s="260"/>
+      <c r="H7" s="259">
         <v>2015</v>
       </c>
-      <c r="I7" s="263"/>
+      <c r="I7" s="260"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1">
       <c r="A8" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>478</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D8" s="20">
         <v>1909</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F8" s="260">
+        <v>437</v>
+      </c>
+      <c r="F8" s="261">
         <v>109</v>
       </c>
-      <c r="G8" s="261"/>
-      <c r="H8" s="260">
+      <c r="G8" s="262"/>
+      <c r="H8" s="261">
         <v>2848</v>
       </c>
-      <c r="I8" s="261"/>
+      <c r="I8" s="262"/>
     </row>
     <row r="9" spans="1:9" ht="42" customHeight="1">
       <c r="A9" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>480</v>
       </c>
       <c r="D9" s="18">
         <v>1952</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="F9" s="262">
+        <v>437</v>
+      </c>
+      <c r="F9" s="259">
         <v>68</v>
       </c>
-      <c r="G9" s="263"/>
-      <c r="H9" s="262">
+      <c r="G9" s="260"/>
+      <c r="H9" s="259">
         <v>1538</v>
       </c>
-      <c r="I9" s="263"/>
+      <c r="I9" s="260"/>
     </row>
     <row r="10" spans="1:9" ht="23.25" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D10" s="17">
         <v>1952</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F10" s="260">
+        <v>437</v>
+      </c>
+      <c r="F10" s="261">
         <v>154</v>
       </c>
-      <c r="G10" s="261"/>
-      <c r="H10" s="260">
+      <c r="G10" s="262"/>
+      <c r="H10" s="261">
         <v>2833</v>
       </c>
-      <c r="I10" s="261"/>
+      <c r="I10" s="262"/>
     </row>
     <row r="11" spans="1:9" ht="23.25" customHeight="1">
       <c r="A11" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>483</v>
-      </c>
       <c r="C11" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D11" s="18">
         <v>1936</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="F11" s="262">
+        <v>437</v>
+      </c>
+      <c r="F11" s="259">
         <v>79</v>
       </c>
-      <c r="G11" s="263"/>
-      <c r="H11" s="262">
+      <c r="G11" s="260"/>
+      <c r="H11" s="259">
         <v>1838</v>
       </c>
-      <c r="I11" s="263"/>
+      <c r="I11" s="260"/>
     </row>
     <row r="12" spans="1:9" ht="32.4">
       <c r="A12" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>485</v>
-      </c>
       <c r="C12" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D12" s="17">
         <v>1948</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F12" s="260">
+        <v>437</v>
+      </c>
+      <c r="F12" s="261">
         <v>67</v>
       </c>
-      <c r="G12" s="261"/>
-      <c r="H12" s="260">
+      <c r="G12" s="262"/>
+      <c r="H12" s="261">
         <v>2461</v>
       </c>
-      <c r="I12" s="261"/>
+      <c r="I12" s="262"/>
     </row>
     <row r="13" spans="1:9" ht="32.4">
       <c r="A13" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>487</v>
-      </c>
       <c r="C13" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D13" s="18">
         <v>1906</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="F13" s="262">
+        <v>437</v>
+      </c>
+      <c r="F13" s="259">
         <v>74</v>
       </c>
-      <c r="G13" s="263"/>
-      <c r="H13" s="262">
+      <c r="G13" s="260"/>
+      <c r="H13" s="259">
         <v>2471</v>
       </c>
-      <c r="I13" s="263"/>
+      <c r="I13" s="260"/>
     </row>
     <row r="14" spans="1:9" ht="32.4">
       <c r="A14" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>489</v>
-      </c>
       <c r="C14" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D14" s="17">
         <v>1906</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F14" s="260">
+        <v>437</v>
+      </c>
+      <c r="F14" s="261">
         <v>62</v>
       </c>
-      <c r="G14" s="261"/>
-      <c r="H14" s="260">
+      <c r="G14" s="262"/>
+      <c r="H14" s="261">
         <v>2290</v>
       </c>
-      <c r="I14" s="261"/>
+      <c r="I14" s="262"/>
     </row>
     <row r="15" spans="1:9" ht="32.4">
       <c r="A15" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>491</v>
-      </c>
       <c r="C15" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D15" s="18">
         <v>1903</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="F15" s="262">
+        <v>437</v>
+      </c>
+      <c r="F15" s="259">
         <v>82</v>
       </c>
-      <c r="G15" s="263"/>
-      <c r="H15" s="262"/>
-      <c r="I15" s="263"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="260"/>
     </row>
     <row r="16" spans="1:9" ht="32.4">
       <c r="A16" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>493</v>
-      </c>
       <c r="C16" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D16" s="17">
         <v>1902</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F16" s="260">
+        <v>437</v>
+      </c>
+      <c r="F16" s="261">
         <v>119</v>
       </c>
-      <c r="G16" s="261"/>
-      <c r="H16" s="260">
+      <c r="G16" s="262"/>
+      <c r="H16" s="261">
         <v>2700</v>
       </c>
-      <c r="I16" s="261"/>
+      <c r="I16" s="262"/>
     </row>
     <row r="17" spans="1:9" ht="32.4">
       <c r="A17" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>495</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D17" s="18">
         <v>1902</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="F17" s="262">
+        <v>437</v>
+      </c>
+      <c r="F17" s="259">
         <v>99</v>
       </c>
-      <c r="G17" s="263"/>
-      <c r="H17" s="262">
+      <c r="G17" s="260"/>
+      <c r="H17" s="259">
         <v>1820</v>
       </c>
-      <c r="I17" s="263"/>
+      <c r="I17" s="260"/>
     </row>
     <row r="18" spans="1:9" ht="32.4">
       <c r="A18" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>497</v>
-      </c>
       <c r="C18" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D18" s="17">
         <v>1902</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F18" s="260">
+        <v>437</v>
+      </c>
+      <c r="F18" s="261">
         <v>114</v>
       </c>
-      <c r="G18" s="261"/>
-      <c r="H18" s="260">
+      <c r="G18" s="262"/>
+      <c r="H18" s="261">
         <v>2447</v>
       </c>
-      <c r="I18" s="261"/>
+      <c r="I18" s="262"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>499</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>500</v>
       </c>
       <c r="D19" s="18">
         <v>1938</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="F19" s="262">
+        <v>437</v>
+      </c>
+      <c r="F19" s="259">
         <v>63</v>
       </c>
-      <c r="G19" s="263"/>
-      <c r="H19" s="262">
+      <c r="G19" s="260"/>
+      <c r="H19" s="259">
         <v>1508</v>
       </c>
-      <c r="I19" s="263"/>
+      <c r="I19" s="260"/>
     </row>
     <row r="20" spans="1:9" ht="32.4">
       <c r="A20" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>502</v>
-      </c>
       <c r="C20" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D20" s="17">
         <v>1952</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F20" s="260">
+        <v>437</v>
+      </c>
+      <c r="F20" s="261">
         <v>71</v>
       </c>
-      <c r="G20" s="261"/>
-      <c r="H20" s="260">
+      <c r="G20" s="262"/>
+      <c r="H20" s="261">
         <v>1230</v>
       </c>
-      <c r="I20" s="261"/>
+      <c r="I20" s="262"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>504</v>
-      </c>
       <c r="C21" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D21" s="18">
         <v>1952</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="F21" s="262">
+        <v>437</v>
+      </c>
+      <c r="F21" s="259">
         <v>100</v>
       </c>
-      <c r="G21" s="263"/>
-      <c r="H21" s="262">
+      <c r="G21" s="260"/>
+      <c r="H21" s="259">
         <v>2259</v>
       </c>
-      <c r="I21" s="263"/>
+      <c r="I21" s="260"/>
     </row>
     <row r="22" spans="1:9" ht="32.4">
       <c r="A22" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D22" s="17">
         <v>1912</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F22" s="260"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="260"/>
-      <c r="I22" s="261"/>
+        <v>437</v>
+      </c>
+      <c r="F22" s="261"/>
+      <c r="G22" s="262"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="262"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1">
       <c r="A23" s="22"/>
@@ -11147,18 +11173,53 @@
       <c r="C23" s="19"/>
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="262"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="262"/>
-      <c r="I23" s="263"/>
+      <c r="F23" s="259"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="260"/>
     </row>
     <row r="24" spans="1:9">
       <c r="C24" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -11170,41 +11231,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11231,7 +11257,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -11239,30 +11265,30 @@
     </row>
     <row r="2" spans="1:5" ht="76.5" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A3" s="263" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A3" s="264" t="s">
+      <c r="B3" s="263">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="B3" s="264">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -11270,10 +11296,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A4" s="265"/>
-      <c r="B4" s="265"/>
+      <c r="A4" s="264"/>
+      <c r="B4" s="264"/>
       <c r="C4" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
@@ -11295,8 +11321,8 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A7" s="184" t="s">
-        <v>526</v>
+      <c r="A7" s="183" t="s">
+        <v>525</v>
       </c>
       <c r="B7" s="9"/>
     </row>
@@ -11343,47 +11369,47 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="204" t="s">
+      <c r="A2" s="200"/>
+      <c r="B2" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="192" t="s">
+      <c r="D2" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="208" t="s">
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="207" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="202"/>
-      <c r="B3" s="205"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="211" t="s">
+      <c r="A3" s="201"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="210" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="213" t="s">
+      <c r="E3" s="211"/>
+      <c r="F3" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="212"/>
-      <c r="H3" s="213" t="s">
+      <c r="G3" s="211"/>
+      <c r="H3" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="214"/>
-      <c r="J3" s="209"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="208"/>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1">
-      <c r="A4" s="203"/>
-      <c r="B4" s="206"/>
-      <c r="C4" s="196"/>
+      <c r="A4" s="202"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="195"/>
       <c r="D4" s="36" t="s">
         <v>37</v>
       </c>
@@ -11399,10 +11425,10 @@
       <c r="H4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="210"/>
+      <c r="J4" s="209"/>
     </row>
     <row r="5" spans="1:10" ht="22.2" customHeight="1">
       <c r="A5" s="26" t="s">
@@ -11419,54 +11445,54 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="22.2" customHeight="1">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
     </row>
     <row r="7" spans="1:10" ht="22.2" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="171">
+      <c r="C7" s="170">
         <v>21412545</v>
       </c>
-      <c r="D7" s="170" t="s">
+      <c r="D7" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="171">
+      <c r="E7" s="170">
         <v>545774</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="170">
         <v>1525698</v>
       </c>
-      <c r="G7" s="171">
+      <c r="G7" s="170">
         <v>1143737</v>
       </c>
-      <c r="H7" s="171">
+      <c r="H7" s="170">
         <v>1753985</v>
       </c>
-      <c r="I7" s="171">
+      <c r="I7" s="170">
         <v>2431810</v>
       </c>
-      <c r="J7" s="170">
+      <c r="J7" s="169">
         <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="184" t="s">
-        <v>517</v>
+      <c r="A8" s="183" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -11595,8 +11621,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="185" t="s">
-        <v>518</v>
+      <c r="A10" s="184" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -11609,9 +11635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.2"/>
   <cols>
@@ -11621,205 +11645,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="265" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="159"/>
+      <c r="B2" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="160"/>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
+        <v>77</v>
+      </c>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:13" ht="45" customHeight="1">
       <c r="A4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="163" t="s">
+      <c r="F4" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="G4" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="163" t="s">
+      <c r="H4" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="163" t="s">
+      <c r="I4" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="163" t="s">
+      <c r="J4" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="163" t="s">
+      <c r="K4" s="162" t="s">
         <v>85</v>
-      </c>
-      <c r="K4" s="163" t="s">
-        <v>86</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="219"/>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="219"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1">
       <c r="A6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="163" t="s">
+      <c r="G6" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="H6" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="163" t="s">
+      <c r="I6" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="163" t="s">
+      <c r="J6" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1">
       <c r="A7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="162"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163" t="s">
+      <c r="F7" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="G7" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="163" t="s">
+      <c r="H7" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="163" t="s">
+      <c r="I7" s="162"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="66"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1">
+      <c r="A8" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="163"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="66"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1">
-      <c r="A8" s="164" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="219"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="220"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
+        <v>99</v>
+      </c>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -11836,230 +11860,230 @@
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
+        <v>101</v>
+      </c>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
     </row>
     <row r="12" spans="1:13" ht="45" customHeight="1">
       <c r="A12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="216"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="215"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="163" t="s">
+      <c r="F12" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="163" t="s">
+      <c r="I12" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="163" t="s">
+      <c r="J12" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="162" t="s">
         <v>85</v>
-      </c>
-      <c r="K12" s="163" t="s">
-        <v>86</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="45" customHeight="1">
       <c r="A13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="163" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="163" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
+      <c r="K13" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
     </row>
     <row r="14" spans="1:13" ht="45" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
-      <c r="E14" s="166" t="s">
+      <c r="E14" s="165" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="166" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="166" t="s">
+      <c r="G14" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="166" t="s">
+      <c r="I14" s="165" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="166" t="s">
+      <c r="J14" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="217"/>
-      <c r="M14" s="218"/>
+      <c r="K14" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="218"/>
+      <c r="M14" s="219"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
+        <v>112</v>
+      </c>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
     </row>
     <row r="16" spans="1:13" ht="45" customHeight="1">
       <c r="A16" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="162"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="163" t="s">
+      <c r="G16" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="163" t="s">
+      <c r="H16" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="163" t="s">
+      <c r="J16" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="163"/>
-      <c r="L16" s="167"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="166"/>
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="45" customHeight="1">
       <c r="A17" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="C17" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="163" t="s">
+      <c r="E17" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="163" t="s">
+      <c r="G17" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="163" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="163" t="s">
+      <c r="M17" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="M17" s="163" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1">
-      <c r="A18" s="164" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="219"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="219"/>
+      <c r="A18" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="220"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="220"/>
-      <c r="K19" s="220"/>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
+        <v>99</v>
+      </c>
+      <c r="B19" s="215"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="215"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -12076,224 +12100,224 @@
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
+        <v>123</v>
+      </c>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
     </row>
     <row r="22" spans="1:13" ht="45" customHeight="1">
       <c r="A22" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="216"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="215"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="163" t="s">
+      <c r="F22" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="163" t="s">
+      <c r="G22" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="163" t="s">
+      <c r="H22" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="163" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="163" t="s">
-        <v>86</v>
+      <c r="I22" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="162" t="s">
+        <v>85</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13" ht="45" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="163" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
+      <c r="J23" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
     </row>
     <row r="24" spans="1:13" ht="45" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="166" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="166" t="s">
+      <c r="E24" s="165" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="165" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" s="217"/>
-      <c r="M24" s="218"/>
+      <c r="I24" s="165" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="218"/>
+      <c r="M24" s="219"/>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
+        <v>112</v>
+      </c>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
     </row>
     <row r="26" spans="1:13" ht="45" customHeight="1">
       <c r="A26" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="162"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="163"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="163" t="s">
+      <c r="H26" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="163" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="163" t="s">
+      <c r="I26" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="I26" s="163" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="167"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="166"/>
       <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="45" customHeight="1">
       <c r="A27" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="163" t="s">
+      <c r="C27" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="162" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="162" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="163" t="s">
-        <v>132</v>
-      </c>
-      <c r="M27" s="163" t="s">
-        <v>123</v>
+      <c r="M27" s="162" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
-      <c r="A28" s="164" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="219"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
-      <c r="M28" s="219"/>
+      <c r="A28" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="220"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="220"/>
-      <c r="L29" s="220"/>
-      <c r="M29" s="220"/>
+        <v>99</v>
+      </c>
+      <c r="B29" s="215"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="215"/>
+      <c r="M29" s="215"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -12310,158 +12334,158 @@
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="45" customHeight="1">
       <c r="A32" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="215"/>
-      <c r="C32" s="216"/>
+        <v>133</v>
+      </c>
+      <c r="B32" s="216"/>
+      <c r="C32" s="217"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="163" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
+      <c r="G32" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
     </row>
     <row r="33" spans="1:13" ht="45" customHeight="1">
       <c r="A33" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
-      <c r="E33" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="166" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="166" t="s">
+      <c r="E33" s="165" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="165" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="K33" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
+      <c r="I33" s="165" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
     </row>
     <row r="34" spans="1:13" ht="45" customHeight="1">
       <c r="A34" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163" t="s">
+      <c r="H34" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="163" t="s">
-        <v>138</v>
-      </c>
-      <c r="J34" s="163" t="s">
+      <c r="J34" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="163"/>
-      <c r="M34" s="163"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="162"/>
     </row>
     <row r="35" spans="1:13" ht="45" customHeight="1">
       <c r="A35" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="163" t="s">
+      <c r="D35" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="163" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="163" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="163" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163"/>
-      <c r="K35" s="163"/>
-      <c r="L35" s="167"/>
+      <c r="E35" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="166"/>
       <c r="M35" s="66"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="164" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="219"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="219"/>
-      <c r="E36" s="219"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
-      <c r="K36" s="219"/>
-      <c r="L36" s="219"/>
-      <c r="M36" s="219"/>
+      <c r="A36" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="214"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="214"/>
+      <c r="L36" s="214"/>
+      <c r="M36" s="214"/>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="220"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="220"/>
-      <c r="E37" s="220"/>
-      <c r="F37" s="220"/>
-      <c r="G37" s="220"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="220"/>
-      <c r="J37" s="220"/>
-      <c r="K37" s="220"/>
-      <c r="L37" s="220"/>
-      <c r="M37" s="220"/>
+        <v>99</v>
+      </c>
+      <c r="B37" s="215"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="215"/>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -12478,164 +12502,164 @@
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="45" customHeight="1">
       <c r="A40" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="162"/>
+        <v>78</v>
+      </c>
+      <c r="B40" s="161"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
-      <c r="E40" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="163" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="163" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="I40" s="163"/>
-      <c r="J40" s="163"/>
-      <c r="K40" s="163"/>
+      <c r="E40" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="162"/>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
     </row>
     <row r="41" spans="1:13" ht="45" customHeight="1">
       <c r="A41" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
-      <c r="E41" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="166" t="s">
+      <c r="E41" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="165" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="166" t="s">
+      <c r="H41" s="165" t="s">
         <v>144</v>
       </c>
-      <c r="H41" s="166" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="J41" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="K41" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="L41" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="M41" s="166"/>
+      <c r="I41" s="165" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="L41" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" s="165"/>
     </row>
     <row r="42" spans="1:13" ht="45" customHeight="1">
       <c r="A42" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="162" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="163" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="163" t="s">
+      <c r="H42" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="H42" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="I42" s="163" t="s">
-        <v>138</v>
-      </c>
-      <c r="J42" s="163" t="s">
+      <c r="J42" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="L42" s="163"/>
-      <c r="M42" s="163"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="162"/>
     </row>
     <row r="43" spans="1:13" ht="45" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" s="163" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="163" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="163" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="163" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="162" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="162" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="167"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="166"/>
       <c r="M43" s="66"/>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
-      <c r="A44" s="164" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="219"/>
-      <c r="E44" s="219"/>
-      <c r="F44" s="219"/>
-      <c r="G44" s="219"/>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
-      <c r="K44" s="219"/>
-      <c r="L44" s="219"/>
-      <c r="M44" s="219"/>
+      <c r="A44" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="214"/>
+      <c r="C44" s="214"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="214"/>
+      <c r="F44" s="214"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="214"/>
+      <c r="J44" s="214"/>
+      <c r="K44" s="214"/>
+      <c r="L44" s="214"/>
+      <c r="M44" s="214"/>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="220"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="220"/>
-      <c r="K45" s="220"/>
-      <c r="L45" s="220"/>
-      <c r="M45" s="220"/>
+        <v>99</v>
+      </c>
+      <c r="B45" s="215"/>
+      <c r="C45" s="215"/>
+      <c r="D45" s="215"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="215"/>
+      <c r="G45" s="215"/>
+      <c r="H45" s="215"/>
+      <c r="I45" s="215"/>
+      <c r="J45" s="215"/>
+      <c r="K45" s="215"/>
+      <c r="L45" s="215"/>
+      <c r="M45" s="215"/>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -12652,208 +12676,208 @@
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="45" customHeight="1">
       <c r="A48" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="161"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="162"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="163" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="163" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="I48" s="163"/>
-      <c r="J48" s="163"/>
-      <c r="K48" s="163"/>
+      <c r="E48" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="162"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="162"/>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
     </row>
     <row r="49" spans="1:13" ht="45" customHeight="1">
       <c r="A49" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
       <c r="D49" s="42"/>
-      <c r="E49" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="166" t="s">
+      <c r="E49" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="165" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="G49" s="166" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="166" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" s="166" t="s">
+      <c r="H49" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="I49" s="165" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="J49" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="K49" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="L49" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="M49" s="166"/>
+      <c r="K49" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="L49" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="M49" s="165"/>
     </row>
     <row r="50" spans="1:13" ht="45" customHeight="1">
       <c r="A50" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="162"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="163" t="s">
+      <c r="F50" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="F50" s="163" t="s">
+      <c r="G50" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="G50" s="163" t="s">
-        <v>153</v>
-      </c>
-      <c r="H50" s="163" t="s">
-        <v>130</v>
-      </c>
-      <c r="I50" s="163"/>
-      <c r="J50" s="163"/>
-      <c r="K50" s="163"/>
-      <c r="L50" s="163"/>
-      <c r="M50" s="163"/>
+      <c r="H50" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="162"/>
+      <c r="L50" s="162"/>
+      <c r="M50" s="162"/>
     </row>
     <row r="51" spans="1:13" ht="45" customHeight="1">
       <c r="A51" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="162"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="162"/>
+      <c r="E51" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="162" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
-      <c r="E51" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="163" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="163" t="s">
-        <v>137</v>
-      </c>
-      <c r="H51" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="I51" s="163" t="s">
-        <v>155</v>
-      </c>
-      <c r="J51" s="163" t="s">
-        <v>85</v>
-      </c>
-      <c r="K51" s="163" t="s">
-        <v>130</v>
-      </c>
-      <c r="L51" s="163"/>
-      <c r="M51" s="163"/>
+      <c r="J51" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="K51" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="L51" s="162"/>
+      <c r="M51" s="162"/>
     </row>
     <row r="52" spans="1:13" ht="45" customHeight="1">
       <c r="A52" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="J52" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="165"/>
-      <c r="G52" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="H52" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="I52" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="J52" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="K52" s="166" t="s">
-        <v>130</v>
-      </c>
-      <c r="L52" s="165"/>
-      <c r="M52" s="165"/>
+      <c r="K52" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="167"/>
+        <v>157</v>
+      </c>
+      <c r="B53" s="162"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="162"/>
+      <c r="F53" s="162"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="162"/>
+      <c r="J53" s="162"/>
+      <c r="K53" s="162"/>
+      <c r="L53" s="166"/>
       <c r="M53" s="66"/>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1">
-      <c r="A54" s="164" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="219"/>
-      <c r="C54" s="219"/>
-      <c r="D54" s="219"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="219"/>
-      <c r="G54" s="219"/>
-      <c r="H54" s="219"/>
-      <c r="I54" s="219"/>
-      <c r="J54" s="219"/>
-      <c r="K54" s="219"/>
-      <c r="L54" s="219"/>
-      <c r="M54" s="219"/>
+      <c r="A54" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="214"/>
+      <c r="C54" s="214"/>
+      <c r="D54" s="214"/>
+      <c r="E54" s="214"/>
+      <c r="F54" s="214"/>
+      <c r="G54" s="214"/>
+      <c r="H54" s="214"/>
+      <c r="I54" s="214"/>
+      <c r="J54" s="214"/>
+      <c r="K54" s="214"/>
+      <c r="L54" s="214"/>
+      <c r="M54" s="214"/>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="220"/>
-      <c r="C55" s="220"/>
-      <c r="D55" s="220"/>
-      <c r="E55" s="220"/>
-      <c r="F55" s="220"/>
-      <c r="G55" s="220"/>
-      <c r="H55" s="220"/>
-      <c r="I55" s="220"/>
-      <c r="J55" s="220"/>
-      <c r="K55" s="220"/>
-      <c r="L55" s="220"/>
-      <c r="M55" s="220"/>
+        <v>99</v>
+      </c>
+      <c r="B55" s="215"/>
+      <c r="C55" s="215"/>
+      <c r="D55" s="215"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="215"/>
+      <c r="G55" s="215"/>
+      <c r="H55" s="215"/>
+      <c r="I55" s="215"/>
+      <c r="J55" s="215"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="215"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1">
       <c r="A56" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -12870,167 +12894,167 @@
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1">
       <c r="A57" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="45" customHeight="1">
       <c r="A58" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="162"/>
-      <c r="C58" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="161"/>
+      <c r="C58" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="G58" s="163" t="s">
-        <v>130</v>
-      </c>
-      <c r="H58" s="163"/>
-      <c r="I58" s="163"/>
-      <c r="J58" s="163"/>
-      <c r="K58" s="163"/>
+      <c r="G58" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="H58" s="162"/>
+      <c r="I58" s="162"/>
+      <c r="J58" s="162"/>
+      <c r="K58" s="162"/>
       <c r="L58" s="37"/>
       <c r="M58" s="37"/>
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1">
       <c r="A59" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
       <c r="D59" s="42"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="166"/>
-      <c r="L59" s="166"/>
-      <c r="M59" s="166"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="165"/>
+      <c r="K59" s="165"/>
+      <c r="L59" s="165"/>
+      <c r="M59" s="165"/>
     </row>
     <row r="60" spans="1:13" ht="45" customHeight="1">
       <c r="A60" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="162" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="162" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="D60" s="163" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="F60" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="G60" s="163" t="s">
-        <v>161</v>
-      </c>
-      <c r="H60" s="163" t="s">
-        <v>130</v>
-      </c>
-      <c r="I60" s="163"/>
-      <c r="J60" s="163"/>
-      <c r="K60" s="163"/>
-      <c r="L60" s="163"/>
-      <c r="M60" s="163"/>
+      <c r="H60" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" s="162"/>
+      <c r="J60" s="162"/>
+      <c r="K60" s="162"/>
+      <c r="L60" s="162"/>
+      <c r="M60" s="162"/>
     </row>
     <row r="61" spans="1:13" ht="45" customHeight="1">
       <c r="A61" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" s="165" t="s">
+        <v>150</v>
+      </c>
+      <c r="I61" s="165" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="H61" s="166" t="s">
-        <v>151</v>
-      </c>
-      <c r="I61" s="166" t="s">
+      <c r="J61" s="165" t="s">
         <v>163</v>
       </c>
-      <c r="J61" s="166" t="s">
+      <c r="K61" s="165" t="s">
+        <v>156</v>
+      </c>
+      <c r="L61" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="K61" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="L61" s="166" t="s">
-        <v>165</v>
-      </c>
-      <c r="M61" s="165"/>
+      <c r="M61" s="164"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
-      <c r="E62" s="163"/>
-      <c r="F62" s="163"/>
-      <c r="G62" s="163"/>
-      <c r="H62" s="163"/>
-      <c r="I62" s="163"/>
-      <c r="J62" s="163"/>
-      <c r="K62" s="163"/>
-      <c r="L62" s="167"/>
+        <v>165</v>
+      </c>
+      <c r="B62" s="162"/>
+      <c r="C62" s="162"/>
+      <c r="D62" s="162"/>
+      <c r="E62" s="162"/>
+      <c r="F62" s="162"/>
+      <c r="G62" s="162"/>
+      <c r="H62" s="162"/>
+      <c r="I62" s="162"/>
+      <c r="J62" s="162"/>
+      <c r="K62" s="162"/>
+      <c r="L62" s="166"/>
       <c r="M62" s="66"/>
     </row>
     <row r="63" spans="1:13" ht="30" customHeight="1">
-      <c r="A63" s="164" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="219"/>
-      <c r="C63" s="219"/>
-      <c r="D63" s="219"/>
-      <c r="E63" s="219"/>
-      <c r="F63" s="219"/>
-      <c r="G63" s="219"/>
-      <c r="H63" s="219"/>
-      <c r="I63" s="219"/>
-      <c r="J63" s="219"/>
-      <c r="K63" s="219"/>
-      <c r="L63" s="219"/>
-      <c r="M63" s="219"/>
+      <c r="A63" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="214"/>
+      <c r="C63" s="214"/>
+      <c r="D63" s="214"/>
+      <c r="E63" s="214"/>
+      <c r="F63" s="214"/>
+      <c r="G63" s="214"/>
+      <c r="H63" s="214"/>
+      <c r="I63" s="214"/>
+      <c r="J63" s="214"/>
+      <c r="K63" s="214"/>
+      <c r="L63" s="214"/>
+      <c r="M63" s="214"/>
     </row>
     <row r="64" spans="1:13" ht="30" customHeight="1">
       <c r="A64" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="220"/>
-      <c r="C64" s="220"/>
-      <c r="D64" s="220"/>
-      <c r="E64" s="220"/>
-      <c r="F64" s="220"/>
-      <c r="G64" s="220"/>
-      <c r="H64" s="220"/>
-      <c r="I64" s="220"/>
-      <c r="J64" s="220"/>
-      <c r="K64" s="220"/>
-      <c r="L64" s="220"/>
-      <c r="M64" s="220"/>
+        <v>99</v>
+      </c>
+      <c r="B64" s="215"/>
+      <c r="C64" s="215"/>
+      <c r="D64" s="215"/>
+      <c r="E64" s="215"/>
+      <c r="F64" s="215"/>
+      <c r="G64" s="215"/>
+      <c r="H64" s="215"/>
+      <c r="I64" s="215"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="215"/>
+      <c r="M64" s="215"/>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1">
       <c r="A65" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -13047,249 +13071,249 @@
     </row>
     <row r="66" spans="1:13" ht="30" customHeight="1">
       <c r="A66" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="45" customHeight="1">
       <c r="A67" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="162"/>
-      <c r="C67" s="162"/>
-      <c r="D67" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="161"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="G67" s="163" t="s">
-        <v>135</v>
-      </c>
-      <c r="H67" s="163" t="s">
-        <v>85</v>
-      </c>
-      <c r="I67" s="163" t="s">
-        <v>130</v>
-      </c>
-      <c r="J67" s="163"/>
-      <c r="K67" s="163"/>
+      <c r="J67" s="162"/>
+      <c r="K67" s="162"/>
       <c r="L67" s="37"/>
       <c r="M67" s="37"/>
     </row>
     <row r="68" spans="1:13" ht="45" customHeight="1">
       <c r="A68" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="215"/>
-      <c r="C68" s="216"/>
+        <v>105</v>
+      </c>
+      <c r="B68" s="216"/>
+      <c r="C68" s="217"/>
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
-      <c r="G68" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" s="163" t="s">
-        <v>168</v>
-      </c>
-      <c r="I68" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="J68" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="K68" s="163"/>
-      <c r="L68" s="163"/>
-      <c r="M68" s="163"/>
+      <c r="G68" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" s="162" t="s">
+        <v>167</v>
+      </c>
+      <c r="I68" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="J68" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="K68" s="162"/>
+      <c r="L68" s="162"/>
+      <c r="M68" s="162"/>
     </row>
     <row r="69" spans="1:13" ht="45" customHeight="1">
       <c r="A69" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
       <c r="D69" s="42"/>
-      <c r="E69" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="G69" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="H69" s="166" t="s">
+      <c r="E69" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="165" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="H69" s="165" t="s">
+        <v>168</v>
+      </c>
+      <c r="I69" s="165" t="s">
+        <v>110</v>
+      </c>
+      <c r="J69" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="K69" s="165" t="s">
         <v>169</v>
       </c>
-      <c r="I69" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="J69" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="K69" s="166" t="s">
-        <v>170</v>
-      </c>
-      <c r="L69" s="166"/>
-      <c r="M69" s="166"/>
+      <c r="L69" s="165"/>
+      <c r="M69" s="165"/>
     </row>
     <row r="70" spans="1:13" ht="45" customHeight="1">
       <c r="A70" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="162" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="163" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="163" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" s="163" t="s">
-        <v>130</v>
-      </c>
-      <c r="G70" s="163"/>
-      <c r="H70" s="163"/>
-      <c r="I70" s="163"/>
-      <c r="J70" s="163"/>
-      <c r="K70" s="163"/>
-      <c r="L70" s="163"/>
-      <c r="M70" s="163"/>
+      <c r="F70" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="162"/>
+      <c r="H70" s="162"/>
+      <c r="I70" s="162"/>
+      <c r="J70" s="162"/>
+      <c r="K70" s="162"/>
+      <c r="L70" s="162"/>
+      <c r="M70" s="162"/>
     </row>
     <row r="71" spans="1:13" ht="45" customHeight="1">
       <c r="A71" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="162"/>
+      <c r="C71" s="162"/>
+      <c r="D71" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="162" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="163"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="163" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="G71" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="H71" s="163" t="s">
-        <v>174</v>
-      </c>
-      <c r="I71" s="163" t="s">
-        <v>155</v>
-      </c>
-      <c r="J71" s="163" t="s">
-        <v>130</v>
-      </c>
-      <c r="K71" s="163"/>
-      <c r="L71" s="163"/>
-      <c r="M71" s="163"/>
+      <c r="I71" s="162" t="s">
+        <v>154</v>
+      </c>
+      <c r="J71" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="K71" s="162"/>
+      <c r="L71" s="162"/>
+      <c r="M71" s="162"/>
     </row>
     <row r="72" spans="1:13" ht="45" customHeight="1">
       <c r="A72" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="165"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="165" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="166"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="166"/>
-      <c r="E72" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="F72" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="166" t="s">
+      <c r="H72" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="H72" s="166" t="s">
-        <v>177</v>
-      </c>
-      <c r="I72" s="166" t="s">
-        <v>161</v>
-      </c>
-      <c r="J72" s="166" t="s">
-        <v>130</v>
-      </c>
-      <c r="K72" s="166"/>
-      <c r="L72" s="166"/>
-      <c r="M72" s="166"/>
+      <c r="I72" s="165" t="s">
+        <v>160</v>
+      </c>
+      <c r="J72" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="K72" s="165"/>
+      <c r="L72" s="165"/>
+      <c r="M72" s="165"/>
     </row>
     <row r="73" spans="1:13" ht="45" customHeight="1">
       <c r="A73" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="162" t="s">
         <v>178</v>
       </c>
-      <c r="B73" s="163" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="163" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="163" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="163" t="s">
-        <v>165</v>
-      </c>
-      <c r="G73" s="163"/>
-      <c r="H73" s="163"/>
-      <c r="I73" s="163"/>
-      <c r="J73" s="163"/>
-      <c r="K73" s="163"/>
-      <c r="L73" s="163" t="s">
-        <v>95</v>
-      </c>
-      <c r="M73" s="163" t="s">
-        <v>143</v>
+      <c r="C73" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="162" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="162" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="162"/>
+      <c r="H73" s="162"/>
+      <c r="I73" s="162"/>
+      <c r="J73" s="162"/>
+      <c r="K73" s="162"/>
+      <c r="L73" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="M73" s="162" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="30" customHeight="1">
-      <c r="A74" s="164" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="219"/>
-      <c r="C74" s="219"/>
-      <c r="D74" s="219"/>
-      <c r="E74" s="219"/>
-      <c r="F74" s="219"/>
-      <c r="G74" s="219"/>
-      <c r="H74" s="219"/>
-      <c r="I74" s="219"/>
-      <c r="J74" s="219"/>
-      <c r="K74" s="219"/>
-      <c r="L74" s="219"/>
-      <c r="M74" s="219"/>
+      <c r="A74" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="214"/>
+      <c r="C74" s="214"/>
+      <c r="D74" s="214"/>
+      <c r="E74" s="214"/>
+      <c r="F74" s="214"/>
+      <c r="G74" s="214"/>
+      <c r="H74" s="214"/>
+      <c r="I74" s="214"/>
+      <c r="J74" s="214"/>
+      <c r="K74" s="214"/>
+      <c r="L74" s="214"/>
+      <c r="M74" s="214"/>
     </row>
     <row r="75" spans="1:13" ht="30" customHeight="1">
       <c r="A75" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="220"/>
-      <c r="C75" s="220"/>
-      <c r="D75" s="220"/>
-      <c r="E75" s="220"/>
-      <c r="F75" s="220"/>
-      <c r="G75" s="220"/>
-      <c r="H75" s="220"/>
-      <c r="I75" s="220"/>
-      <c r="J75" s="220"/>
-      <c r="K75" s="220"/>
-      <c r="L75" s="220"/>
-      <c r="M75" s="220"/>
+        <v>99</v>
+      </c>
+      <c r="B75" s="215"/>
+      <c r="C75" s="215"/>
+      <c r="D75" s="215"/>
+      <c r="E75" s="215"/>
+      <c r="F75" s="215"/>
+      <c r="G75" s="215"/>
+      <c r="H75" s="215"/>
+      <c r="I75" s="215"/>
+      <c r="J75" s="215"/>
+      <c r="K75" s="215"/>
+      <c r="L75" s="215"/>
+      <c r="M75" s="215"/>
     </row>
     <row r="76" spans="1:13" ht="30" customHeight="1">
       <c r="A76" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -13306,92 +13330,11 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="L5:M5"/>
@@ -13416,6 +13359,87 @@
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M74:M75"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <hyperlinks>
@@ -13449,7 +13473,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -13461,54 +13485,54 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="34.950000000000003" customHeight="1">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="222" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="220" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+    </row>
+    <row r="3" spans="1:9" ht="42" customHeight="1">
+      <c r="A3" s="220"/>
+      <c r="B3" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-    </row>
-    <row r="3" spans="1:9" ht="42" customHeight="1">
-      <c r="A3" s="221"/>
-      <c r="B3" s="98" t="s">
+      <c r="C3" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="D3" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="E3" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="F3" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="G3" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="H3" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="I3" s="99" t="s">
         <v>190</v>
-      </c>
-      <c r="I3" s="99" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="153"/>
       <c r="C4" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="155"/>
       <c r="E4" s="155"/>
@@ -13519,12 +13543,12 @@
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="152" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="156"/>
       <c r="C5" s="156"/>
       <c r="D5" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="156"/>
       <c r="F5" s="156"/>
@@ -13534,11 +13558,11 @@
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="152" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="155"/>
       <c r="C6" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="155"/>
       <c r="E6" s="155"/>
@@ -13549,10 +13573,10 @@
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="A7" s="152" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="156"/>
       <c r="D7" s="156"/>
@@ -13564,12 +13588,12 @@
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="155"/>
       <c r="C8" s="155"/>
       <c r="D8" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="155"/>
       <c r="F8" s="154"/>
@@ -13579,13 +13603,13 @@
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="152" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="156"/>
       <c r="C9" s="156"/>
       <c r="D9" s="157"/>
       <c r="E9" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F9" s="156"/>
       <c r="G9" s="156"/>
@@ -13594,13 +13618,13 @@
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="A10" s="152" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="155"/>
       <c r="C10" s="154"/>
       <c r="D10" s="155"/>
       <c r="E10" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F10" s="155"/>
       <c r="G10" s="155"/>
@@ -13609,10 +13633,10 @@
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="A11" s="152" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="156"/>
       <c r="D11" s="156"/>
@@ -13624,14 +13648,14 @@
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="A12" s="152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="155"/>
       <c r="C12" s="154"/>
       <c r="D12" s="155"/>
       <c r="E12" s="155"/>
       <c r="F12" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="155"/>
       <c r="H12" s="155"/>
@@ -13639,12 +13663,12 @@
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" s="152" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="157"/>
       <c r="C13" s="156"/>
       <c r="D13" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
@@ -13654,14 +13678,14 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="152" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="155"/>
       <c r="C14" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="154"/>
@@ -13671,7 +13695,7 @@
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
       <c r="A15" s="152" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="156"/>
       <c r="C15" s="156"/>
@@ -13679,20 +13703,20 @@
       <c r="E15" s="157"/>
       <c r="F15" s="156"/>
       <c r="G15" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="157"/>
       <c r="I15" s="157"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
       <c r="A16" s="152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="155"/>
       <c r="C16" s="154"/>
       <c r="D16" s="155"/>
       <c r="E16" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" s="155"/>
       <c r="G16" s="155"/>
@@ -13701,10 +13725,10 @@
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
       <c r="A17" s="152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="156"/>
       <c r="D17" s="156"/>
@@ -13716,7 +13740,7 @@
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" s="152" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="155"/>
       <c r="C18" s="154"/>
@@ -13725,17 +13749,17 @@
       <c r="F18" s="155"/>
       <c r="G18" s="155"/>
       <c r="H18" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I18" s="154"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
       <c r="A19" s="152" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="157"/>
       <c r="C19" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="156"/>
       <c r="E19" s="156"/>
@@ -13746,10 +13770,10 @@
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
       <c r="A20" s="152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="155"/>
@@ -13761,7 +13785,7 @@
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
       <c r="A21" s="152" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="157"/>
       <c r="C21" s="156"/>
@@ -13770,18 +13794,18 @@
       <c r="F21" s="156"/>
       <c r="G21" s="156"/>
       <c r="H21" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" s="157"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
       <c r="A22" s="152" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="155"/>
       <c r="C22" s="154"/>
       <c r="D22" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="155"/>
       <c r="F22" s="154"/>
@@ -13791,11 +13815,11 @@
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
       <c r="A23" s="152" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="156"/>
       <c r="C23" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="157"/>
       <c r="E23" s="157"/>
@@ -13806,7 +13830,7 @@
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
       <c r="A24" s="152" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="155"/>
       <c r="C24" s="154"/>
@@ -13816,17 +13840,17 @@
       <c r="G24" s="155"/>
       <c r="H24" s="155"/>
       <c r="I24" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
       <c r="A25" s="152" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="157"/>
       <c r="C25" s="156"/>
       <c r="D25" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E25" s="156"/>
       <c r="F25" s="156"/>
@@ -13836,12 +13860,12 @@
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
       <c r="A26" s="152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="155"/>
       <c r="C26" s="154"/>
       <c r="D26" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E26" s="154"/>
       <c r="F26" s="155"/>
@@ -13851,12 +13875,12 @@
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
       <c r="A27" s="152" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="157"/>
       <c r="C27" s="156"/>
       <c r="D27" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" s="156"/>
       <c r="F27" s="156"/>
@@ -13866,11 +13890,11 @@
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
       <c r="A28" s="152" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="155"/>
       <c r="C28" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" s="154"/>
       <c r="E28" s="154"/>
@@ -13881,11 +13905,11 @@
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
       <c r="A29" s="152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="157"/>
       <c r="C29" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="157"/>
       <c r="E29" s="156"/>
@@ -13896,12 +13920,12 @@
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
       <c r="A30" s="152" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="155"/>
       <c r="C30" s="154"/>
       <c r="D30" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E30" s="154"/>
       <c r="F30" s="155"/>
@@ -13911,7 +13935,7 @@
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
       <c r="A31" s="152" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31" s="157"/>
       <c r="C31" s="157"/>
@@ -13921,17 +13945,17 @@
       <c r="G31" s="156"/>
       <c r="H31" s="156"/>
       <c r="I31" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1">
       <c r="A32" s="152" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="155"/>
       <c r="C32" s="154"/>
       <c r="D32" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E32" s="154"/>
       <c r="F32" s="155"/>
@@ -13941,11 +13965,11 @@
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1">
       <c r="A33" s="152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="157"/>
       <c r="C33" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33" s="157"/>
       <c r="E33" s="156"/>
@@ -13956,10 +13980,10 @@
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1">
       <c r="A34" s="152" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C34" s="154"/>
       <c r="D34" s="154"/>
@@ -13970,8 +13994,8 @@
       <c r="I34" s="154"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1">
-      <c r="A35" s="186" t="s">
-        <v>519</v>
+      <c r="A35" s="185" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -14010,7 +14034,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -14018,18 +14042,18 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A2" s="223" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="224" t="s">
+      <c r="A2" s="222" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="226"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="225"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="221"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="138"/>
       <c r="C3" s="150"/>
       <c r="D3" s="150"/>
@@ -14037,7 +14061,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="110"/>
       <c r="C4" s="110"/>
@@ -14046,7 +14070,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="135"/>
       <c r="C5" s="135"/>
@@ -14055,7 +14079,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
@@ -14064,7 +14088,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="151"/>
       <c r="C7" s="135"/>
@@ -14073,7 +14097,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -14108,7 +14132,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -14116,21 +14140,21 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="229" t="s">
-        <v>538</v>
-      </c>
-      <c r="B2" s="227" t="s">
+      <c r="A2" s="228" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickBot="1">
-      <c r="A3" s="230"/>
+      <c r="A3" s="229"/>
       <c r="B3" s="146">
         <v>2016</v>
       </c>
@@ -14155,7 +14179,7 @@
     </row>
     <row r="4" spans="1:8" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="139" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" s="140">
         <v>2310.5</v>
@@ -14181,7 +14205,7 @@
     </row>
     <row r="5" spans="1:8" ht="24.9" customHeight="1">
       <c r="A5" s="139" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="147">
         <v>830</v>
@@ -14207,7 +14231,7 @@
     </row>
     <row r="6" spans="1:8" ht="24.9" customHeight="1">
       <c r="A6" s="139" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B6" s="140">
         <v>636.9</v>
@@ -14233,7 +14257,7 @@
     </row>
     <row r="7" spans="1:8" ht="24.9" customHeight="1">
       <c r="A7" s="139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="147">
         <v>1754000</v>
@@ -14259,7 +14283,7 @@
     </row>
     <row r="8" spans="1:8" ht="24.9" customHeight="1">
       <c r="A8" s="139" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="140">
         <v>1468000</v>
@@ -14285,7 +14309,7 @@
     </row>
     <row r="9" spans="1:8" ht="24.9" customHeight="1">
       <c r="A9" s="139" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="148">
         <v>67140.600000000006</v>
@@ -14311,7 +14335,7 @@
     </row>
     <row r="10" spans="1:8" ht="24.9" customHeight="1">
       <c r="A10" s="139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="140">
         <v>5984.1</v>
@@ -14337,7 +14361,7 @@
     </row>
     <row r="11" spans="1:8" ht="24.9" customHeight="1">
       <c r="A11" s="139" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B11" s="148">
         <v>2207.1</v>
@@ -14363,7 +14387,7 @@
     </row>
     <row r="12" spans="1:8" ht="24.9" customHeight="1">
       <c r="A12" s="139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="140">
         <v>2117.1</v>
@@ -14388,8 +14412,8 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="186" t="s">
-        <v>520</v>
+      <c r="A13" s="185" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14423,23 +14447,23 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="97" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1">
+      <c r="A2" s="222" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1">
-      <c r="A2" s="223" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="221"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="123">
         <v>2011</v>
       </c>
@@ -14458,7 +14482,7 @@
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999">
       <c r="A4" s="142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" s="140">
         <v>60377.91</v>
@@ -14478,7 +14502,7 @@
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999">
       <c r="A5" s="143" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="144">
         <v>211.42</v>
@@ -14498,7 +14522,7 @@
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999">
       <c r="A6" s="145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="140">
         <v>344.61</v>
@@ -14518,7 +14542,7 @@
     </row>
     <row r="7" spans="1:6" ht="17.399999999999999">
       <c r="A7" s="143" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="144">
         <v>4548.01</v>
@@ -14538,7 +14562,7 @@
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999">
       <c r="A8" s="142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="140">
         <v>1274.1500000000001</v>
@@ -14558,7 +14582,7 @@
     </row>
     <row r="9" spans="1:6" ht="17.399999999999999">
       <c r="A9" s="143" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" s="144">
         <v>3027.5</v>
@@ -14578,7 +14602,7 @@
     </row>
     <row r="10" spans="1:6" ht="17.399999999999999">
       <c r="A10" s="145" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="140">
         <v>1537.54</v>
@@ -14598,7 +14622,7 @@
     </row>
     <row r="11" spans="1:6" ht="17.399999999999999">
       <c r="A11" s="143" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="144">
         <v>1726.8</v>
@@ -14618,7 +14642,7 @@
     </row>
     <row r="12" spans="1:6" ht="17.399999999999999">
       <c r="A12" s="142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="140">
         <v>3875.22</v>
@@ -14638,7 +14662,7 @@
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999">
       <c r="A13" s="143" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="144">
         <v>201</v>
@@ -14658,7 +14682,7 @@
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999">
       <c r="A14" s="145" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="140">
         <v>3819.74</v>
@@ -14678,7 +14702,7 @@
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999">
       <c r="A15" s="143" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" s="144">
         <v>1450.98</v>
@@ -14698,7 +14722,7 @@
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999">
       <c r="A16" s="142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="140">
         <v>3519.78</v>
@@ -14718,7 +14742,7 @@
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999">
       <c r="A17" s="143" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="144">
         <v>967.51</v>
@@ -14738,7 +14762,7 @@
     </row>
     <row r="18" spans="1:6" ht="17.399999999999999">
       <c r="A18" s="145" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="140">
         <v>1852.39</v>
@@ -14758,7 +14782,7 @@
     </row>
     <row r="19" spans="1:6" ht="17.399999999999999">
       <c r="A19" s="143" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" s="144">
         <v>4955.3</v>
@@ -14778,7 +14802,7 @@
     </row>
     <row r="20" spans="1:6" ht="17.399999999999999">
       <c r="A20" s="142" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="140">
         <v>5080.96</v>
@@ -14798,7 +14822,7 @@
     </row>
     <row r="21" spans="1:6" ht="17.399999999999999">
       <c r="A21" s="143" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="144">
         <v>2379.7800000000002</v>
@@ -14818,7 +14842,7 @@
     </row>
     <row r="22" spans="1:6" ht="17.399999999999999">
       <c r="A22" s="145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="140">
         <v>2769.2</v>
@@ -14838,7 +14862,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.399999999999999">
       <c r="A23" s="143" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="144">
         <v>1872.46</v>
@@ -14858,7 +14882,7 @@
     </row>
     <row r="24" spans="1:6" ht="17.399999999999999">
       <c r="A24" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="140">
         <v>1523.05</v>
@@ -14878,7 +14902,7 @@
     </row>
     <row r="25" spans="1:6" ht="17.399999999999999">
       <c r="A25" s="143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="144">
         <v>243.79</v>
@@ -14898,7 +14922,7 @@
     </row>
     <row r="26" spans="1:6" ht="17.399999999999999">
       <c r="A26" s="145" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="140">
         <v>685.25</v>
@@ -14918,7 +14942,7 @@
     </row>
     <row r="27" spans="1:6" ht="17.399999999999999">
       <c r="A27" s="143" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" s="144">
         <v>2553.11</v>
@@ -14938,7 +14962,7 @@
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999">
       <c r="A28" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B28" s="140">
         <v>1131.72</v>
@@ -14958,7 +14982,7 @@
     </row>
     <row r="29" spans="1:6" ht="17.399999999999999">
       <c r="A29" s="143" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="144">
         <v>1588.42</v>
@@ -14978,7 +15002,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.399999999999999">
       <c r="A30" s="145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" s="140">
         <v>237.03</v>
@@ -14998,7 +15022,7 @@
     </row>
     <row r="31" spans="1:6" ht="17.399999999999999">
       <c r="A31" s="143" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B31" s="144">
         <v>1284.8699999999999</v>
@@ -15018,7 +15042,7 @@
     </row>
     <row r="32" spans="1:6" ht="17.399999999999999">
       <c r="A32" s="142" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="140">
         <v>1278.45</v>
@@ -15038,7 +15062,7 @@
     </row>
     <row r="33" spans="1:6" ht="17.399999999999999">
       <c r="A33" s="143" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="144">
         <v>251.67</v>
@@ -15058,7 +15082,7 @@
     </row>
     <row r="34" spans="1:6" ht="17.399999999999999">
       <c r="A34" s="145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="140">
         <v>464.6</v>
@@ -15078,7 +15102,7 @@
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999">
       <c r="A35" s="143" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B35" s="144">
         <v>3721.6</v>
@@ -15098,7 +15122,7 @@
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" ht="16.2">
       <c r="A36" s="141" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" ht="16.2">
